--- a/dumps/Stocks/Asian Paints Ltd.xlsx
+++ b/dumps/Stocks/Asian Paints Ltd.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP978"/>
+  <dimension ref="A1:AP980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,238 +1095,114 @@
     </row>
     <row r="5">
       <c r="A5" s="86" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2535.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5095.56</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="86" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2520.7</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5066.6</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607382790</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="86" t="n">
         <v>46062</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E7" s="0" t="n">
         <v>35.7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F7" s="0" t="n">
         <v>35.7</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H7" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I7" s="0" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B6" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C6" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D6" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="41" t="n">
-        <v>2553.07</v>
-      </c>
-      <c r="F6" s="41">
-        <f>(D5*E5)+I5</f>
-        <v/>
-      </c>
-      <c r="G6" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H6" s="40" t="n"/>
-      <c r="I6" s="40" t="n"/>
-      <c r="J6" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K6" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L6" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M6" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N6" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O6" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P6" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q6" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R6" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S6" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T6" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U6" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V6" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W6" s="46" t="n"/>
-      <c r="X6" s="46" t="n"/>
-      <c r="Y6" s="45">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z6" s="46" t="n"/>
-      <c r="AA6" s="46" t="n"/>
-      <c r="AB6" s="47" t="n"/>
-      <c r="AC6" s="42">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD6" s="48" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="38" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B7" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C7" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D7" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="41" t="n">
-        <v>2538.57</v>
-      </c>
-      <c r="F7" s="41">
-        <f>(D6*E6)+I6</f>
-        <v/>
-      </c>
-      <c r="G7" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H7" s="40" t="n"/>
-      <c r="I7" s="40" t="n"/>
-      <c r="J7" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K7" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L7" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M7" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N7" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O7" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P7" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R7" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S7" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T7" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U7" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V7" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W7" s="46" t="n"/>
-      <c r="X7" s="46" t="n"/>
-      <c r="Y7" s="45">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z7" s="46" t="n"/>
-      <c r="AA7" s="46" t="n"/>
-      <c r="AB7" s="47" t="n"/>
-      <c r="AC7" s="42">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD7" s="48" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="38" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B8" s="39" t="inlineStr">
         <is>
@@ -1342,10 +1218,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="41" t="n">
-        <v>2514.91</v>
+        <v>2553.07</v>
       </c>
       <c r="F8" s="41">
-        <f>(D7*E7)+I7</f>
+        <f>(D5*E5)+I5</f>
         <v/>
       </c>
       <c r="G8" s="39" t="inlineStr">
@@ -1360,71 +1236,71 @@
         <v/>
       </c>
       <c r="K8" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L8" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M8" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N8" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O8" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P8" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q8" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R8" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S8" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T8" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U8" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V8" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W8" s="46" t="n"/>
       <c r="X8" s="46" t="n"/>
       <c r="Y8" s="45">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z8" s="46" t="n"/>
       <c r="AA8" s="46" t="n"/>
       <c r="AB8" s="47" t="n"/>
       <c r="AC8" s="42">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD8" s="48" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="38" t="n">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="B9" s="39" t="inlineStr">
         <is>
@@ -1437,13 +1313,13 @@
         </is>
       </c>
       <c r="D9" s="40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="41" t="n">
-        <v>2539.28</v>
+        <v>2538.57</v>
       </c>
       <c r="F9" s="41">
-        <f>(D8*E8)+I8</f>
+        <f>(D6*E6)+I6</f>
         <v/>
       </c>
       <c r="G9" s="39" t="inlineStr">
@@ -1458,71 +1334,71 @@
         <v/>
       </c>
       <c r="K9" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L9" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M9" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N9" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O9" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P9" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q9" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R9" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S9" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T9" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U9" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V9" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W9" s="46" t="n"/>
       <c r="X9" s="46" t="n"/>
       <c r="Y9" s="45">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z9" s="46" t="n"/>
       <c r="AA9" s="46" t="n"/>
       <c r="AB9" s="47" t="n"/>
       <c r="AC9" s="42">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD9" s="48" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="38" t="n">
-        <v>45924</v>
+        <v>45954</v>
       </c>
       <c r="B10" s="39" t="inlineStr">
         <is>
@@ -1535,13 +1411,13 @@
         </is>
       </c>
       <c r="D10" s="40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="41" t="n">
-        <v>2487.71</v>
+        <v>2514.91</v>
       </c>
       <c r="F10" s="41">
-        <f>(D9*E9)+I9</f>
+        <f>(D7*E7)+I7</f>
         <v/>
       </c>
       <c r="G10" s="39" t="inlineStr">
@@ -1556,71 +1432,71 @@
         <v/>
       </c>
       <c r="K10" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L10" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M10" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N10" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O10" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P10" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q10" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R10" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S10" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T10" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U10" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V10" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W10" s="46" t="n"/>
       <c r="X10" s="46" t="n"/>
       <c r="Y10" s="45">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z10" s="46" t="n"/>
       <c r="AA10" s="46" t="n"/>
       <c r="AB10" s="47" t="n"/>
       <c r="AC10" s="42">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD10" s="48" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="38" t="n">
-        <v>45855</v>
+        <v>45950</v>
       </c>
       <c r="B11" s="39" t="inlineStr">
         <is>
@@ -1633,95 +1509,92 @@
         </is>
       </c>
       <c r="D11" s="40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="41" t="n">
-        <v>2420.93</v>
-      </c>
-      <c r="F11" s="41" t="n">
-        <v>4841.86</v>
+        <v>2539.28</v>
+      </c>
+      <c r="F11" s="41">
+        <f>(D8*E8)+I8</f>
+        <v/>
       </c>
       <c r="G11" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H11" s="40" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="I11" s="40" t="n">
-        <v>29.25</v>
-      </c>
+      <c r="H11" s="40" t="n"/>
+      <c r="I11" s="40" t="n"/>
       <c r="J11" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K11" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L11" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M11" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N11" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O11" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P11" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q11" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R11" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S11" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T11" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U11" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V11" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W11" s="46" t="n"/>
       <c r="X11" s="46" t="n"/>
       <c r="Y11" s="45">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z11" s="46" t="n"/>
       <c r="AA11" s="46" t="n"/>
       <c r="AB11" s="47" t="n"/>
       <c r="AC11" s="42">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD11" s="48" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="38" t="n">
-        <v>45855</v>
+        <v>45924</v>
       </c>
       <c r="B12" s="39" t="inlineStr">
         <is>
@@ -1734,95 +1607,92 @@
         </is>
       </c>
       <c r="D12" s="40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="41" t="n">
-        <v>2420.93</v>
-      </c>
-      <c r="F12" s="41" t="n">
-        <v>2420.93</v>
+        <v>2487.71</v>
+      </c>
+      <c r="F12" s="41">
+        <f>(D9*E9)+I9</f>
+        <v/>
       </c>
       <c r="G12" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H12" s="40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I12" s="40" t="n">
-        <v>14.63</v>
-      </c>
+      <c r="H12" s="40" t="n"/>
+      <c r="I12" s="40" t="n"/>
       <c r="J12" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K12" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L12" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M12" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N12" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O12" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P12" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q12" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R12" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S12" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T12" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U12" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V12" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W12" s="46" t="n"/>
       <c r="X12" s="46" t="n"/>
       <c r="Y12" s="45">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z12" s="46" t="n"/>
       <c r="AA12" s="46" t="n"/>
       <c r="AB12" s="47" t="n"/>
       <c r="AC12" s="42">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD12" s="48" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B13" s="39" t="inlineStr">
         <is>
@@ -1835,13 +1705,13 @@
         </is>
       </c>
       <c r="D13" s="40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13" s="41" t="n">
-        <v>2269.87</v>
+        <v>2420.93</v>
       </c>
       <c r="F13" s="41" t="n">
-        <v>13619.21</v>
+        <v>4841.86</v>
       </c>
       <c r="G13" s="39" t="inlineStr">
         <is>
@@ -1849,85 +1719,85 @@
         </is>
       </c>
       <c r="H13" s="40" t="n">
-        <v>13.5</v>
+        <v>4.81</v>
       </c>
       <c r="I13" s="40" t="n">
-        <v>82.31</v>
+        <v>29.25</v>
       </c>
       <c r="J13" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K13" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L13" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M13" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N13" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O13" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P13" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q13" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R13" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S13" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T13" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U13" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V13" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W13" s="46" t="n"/>
       <c r="X13" s="46" t="n"/>
       <c r="Y13" s="45">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z13" s="46" t="n"/>
       <c r="AA13" s="46" t="n"/>
       <c r="AB13" s="47" t="n"/>
       <c r="AC13" s="42">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD13" s="48" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="38" t="n">
-        <v>45818</v>
+        <v>45855</v>
       </c>
       <c r="B14" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="39" t="inlineStr">
@@ -1936,95 +1806,95 @@
         </is>
       </c>
       <c r="D14" s="40" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E14" s="41" t="n">
-        <v>20.55</v>
+        <v>2420.93</v>
       </c>
       <c r="F14" s="41" t="n">
-        <v>328.8</v>
+        <v>2420.93</v>
       </c>
       <c r="G14" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H14" s="40" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I14" s="40" t="n">
-        <v>0</v>
+        <v>14.63</v>
       </c>
       <c r="J14" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K14" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L14" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M14" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N14" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O14" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P14" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q14" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R14" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S14" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T14" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U14" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V14" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W14" s="46" t="n"/>
       <c r="X14" s="46" t="n"/>
       <c r="Y14" s="45">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z14" s="46" t="n"/>
       <c r="AA14" s="46" t="n"/>
       <c r="AB14" s="47" t="n"/>
       <c r="AC14" s="42">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD14" s="48" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B15" s="39" t="inlineStr">
         <is>
@@ -2037,13 +1907,13 @@
         </is>
       </c>
       <c r="D15" s="40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" s="41" t="n">
-        <v>2267.87</v>
+        <v>2269.87</v>
       </c>
       <c r="F15" s="41" t="n">
-        <v>2267.87</v>
+        <v>13619.21</v>
       </c>
       <c r="G15" s="39" t="inlineStr">
         <is>
@@ -2051,85 +1921,85 @@
         </is>
       </c>
       <c r="H15" s="40" t="n">
-        <v>2.26</v>
+        <v>13.5</v>
       </c>
       <c r="I15" s="40" t="n">
-        <v>13.71</v>
+        <v>82.31</v>
       </c>
       <c r="J15" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K15" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L15" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M15" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N15" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O15" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P15" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q15" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R15" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S15" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T15" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U15" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V15" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W15" s="46" t="n"/>
       <c r="X15" s="46" t="n"/>
       <c r="Y15" s="45">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z15" s="46" t="n"/>
       <c r="AA15" s="46" t="n"/>
       <c r="AB15" s="47" t="n"/>
       <c r="AC15" s="42">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD15" s="48" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="38" t="n">
-        <v>45812</v>
+        <v>45818</v>
       </c>
       <c r="B16" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C16" s="39" t="inlineStr">
@@ -2138,95 +2008,95 @@
         </is>
       </c>
       <c r="D16" s="40" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E16" s="41" t="n">
-        <v>2267.87</v>
+        <v>20.55</v>
       </c>
       <c r="F16" s="41" t="n">
-        <v>2267.87</v>
+        <v>328.8</v>
       </c>
       <c r="G16" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
         </is>
       </c>
       <c r="H16" s="40" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="I16" s="40" t="n">
-        <v>13.71</v>
+        <v>0</v>
       </c>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L16" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M16" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N16" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P16" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R16" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S16" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T16" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U16" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V16" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W16" s="46" t="n"/>
       <c r="X16" s="46" t="n"/>
       <c r="Y16" s="45">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z16" s="46" t="n"/>
       <c r="AA16" s="46" t="n"/>
       <c r="AB16" s="47" t="n"/>
       <c r="AC16" s="42">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD16" s="48" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B17" s="39" t="inlineStr">
         <is>
@@ -2239,13 +2109,13 @@
         </is>
       </c>
       <c r="D17" s="40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="41" t="n">
-        <v>2281.46</v>
+        <v>2267.87</v>
       </c>
       <c r="F17" s="41" t="n">
-        <v>4562.92</v>
+        <v>2267.87</v>
       </c>
       <c r="G17" s="39" t="inlineStr">
         <is>
@@ -2253,282 +2123,283 @@
         </is>
       </c>
       <c r="H17" s="40" t="n">
-        <v>4.53</v>
+        <v>2.26</v>
       </c>
       <c r="I17" s="40" t="n">
-        <v>27.59</v>
+        <v>13.71</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L17" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M17" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N17" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P17" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R17" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S17" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T17" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U17" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V17" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W17" s="46" t="n"/>
       <c r="X17" s="46" t="n"/>
       <c r="Y17" s="45">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z17" s="46" t="n"/>
       <c r="AA17" s="46" t="n"/>
       <c r="AB17" s="47" t="n"/>
       <c r="AC17" s="42">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD17" s="48" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B18" s="50" t="inlineStr">
+      <c r="A18" s="38" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B18" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C18" s="50" t="inlineStr">
+      <c r="C18" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D18" s="51" t="n">
+      <c r="D18" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="52" t="n">
-        <v>2293.04</v>
-      </c>
-      <c r="F18" s="52">
-        <f>E17*D17 + sum(H17:I17)</f>
-        <v/>
-      </c>
-      <c r="G18" s="50" t="inlineStr">
+      <c r="E18" s="41" t="n">
+        <v>2267.87</v>
+      </c>
+      <c r="F18" s="41" t="n">
+        <v>2267.87</v>
+      </c>
+      <c r="G18" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H18" s="51" t="n"/>
-      <c r="I18" s="51" t="n">
-        <v>16.14</v>
+      <c r="H18" s="40" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I18" s="40" t="n">
+        <v>13.71</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L18" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M18" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N18" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P18" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R18" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S18" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T18" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U18" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V18" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W18" s="46" t="n"/>
       <c r="X18" s="46" t="n"/>
       <c r="Y18" s="45">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z18" s="46" t="n"/>
       <c r="AA18" s="46" t="n"/>
       <c r="AB18" s="47" t="n"/>
       <c r="AC18" s="42">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD18" s="48" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B19" s="50" t="inlineStr">
+      <c r="A19" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B19" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C19" s="50" t="inlineStr">
+      <c r="C19" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D19" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="52" t="n">
-        <v>2243.04</v>
-      </c>
-      <c r="F19" s="52" t="n">
-        <v>2243.04</v>
-      </c>
-      <c r="G19" s="50" t="inlineStr">
+      <c r="D19" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="41" t="n">
+        <v>2281.46</v>
+      </c>
+      <c r="F19" s="41" t="n">
+        <v>4562.92</v>
+      </c>
+      <c r="G19" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H19" s="51" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I19" s="51" t="n">
-        <v>13.55</v>
+      <c r="H19" s="40" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="I19" s="40" t="n">
+        <v>27.59</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L19" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M19" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N19" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P19" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R19" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S19" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T19" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U19" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V19" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W19" s="46" t="n"/>
       <c r="X19" s="46" t="n"/>
       <c r="Y19" s="45">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z19" s="46" t="n"/>
       <c r="AA19" s="46" t="n"/>
       <c r="AB19" s="47" t="n"/>
       <c r="AC19" s="42">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD19" s="48" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="49" t="n">
-        <v>45716</v>
+        <v>45734</v>
       </c>
       <c r="B20" s="50" t="inlineStr">
         <is>
@@ -2544,92 +2415,91 @@
         <v>1</v>
       </c>
       <c r="E20" s="52" t="n">
-        <v>2204.63</v>
-      </c>
-      <c r="F20" s="52" t="n">
-        <v>2204.63</v>
+        <v>2293.04</v>
+      </c>
+      <c r="F20" s="52">
+        <f>E17*D17 + sum(H17:I17)</f>
+        <v/>
       </c>
       <c r="G20" s="50" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H20" s="51" t="n">
-        <v>2.18</v>
-      </c>
+      <c r="H20" s="51" t="n"/>
       <c r="I20" s="51" t="n">
-        <v>13.35</v>
+        <v>16.14</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L20" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M20" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N20" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P20" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R20" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S20" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T20" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U20" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V20" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W20" s="46" t="n"/>
       <c r="X20" s="46" t="n"/>
       <c r="Y20" s="45">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z20" s="46" t="n"/>
       <c r="AA20" s="46" t="n"/>
       <c r="AB20" s="47" t="n"/>
       <c r="AC20" s="42">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD20" s="48" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="49" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B21" s="50" t="inlineStr">
         <is>
@@ -2642,13 +2512,13 @@
         </is>
       </c>
       <c r="D21" s="51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="52" t="n">
-        <v>2273</v>
+        <v>2243.04</v>
       </c>
       <c r="F21" s="52" t="n">
-        <v>6819</v>
+        <v>2243.04</v>
       </c>
       <c r="G21" s="50" t="inlineStr">
         <is>
@@ -2656,81 +2526,81 @@
         </is>
       </c>
       <c r="H21" s="51" t="n">
-        <v>6.76</v>
+        <v>2.24</v>
       </c>
       <c r="I21" s="51" t="n">
-        <v>41.24</v>
+        <v>13.55</v>
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L21" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M21" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N21" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P21" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R21" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S21" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T21" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U21" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V21" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W21" s="46" t="n"/>
       <c r="X21" s="46" t="n"/>
       <c r="Y21" s="45">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z21" s="46" t="n"/>
       <c r="AA21" s="46" t="n"/>
       <c r="AB21" s="47" t="n"/>
       <c r="AC21" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD21" s="48" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="49" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B22" s="50" t="inlineStr">
         <is>
@@ -2746,10 +2616,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="52" t="n">
-        <v>2273.12</v>
+        <v>2204.63</v>
       </c>
       <c r="F22" s="52" t="n">
-        <v>2273.12</v>
+        <v>2204.63</v>
       </c>
       <c r="G22" s="50" t="inlineStr">
         <is>
@@ -2757,81 +2627,81 @@
         </is>
       </c>
       <c r="H22" s="51" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I22" s="51" t="n">
-        <v>13.76</v>
+        <v>13.35</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L22" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M22" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N22" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P22" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R22" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S22" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T22" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U22" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V22" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W22" s="46" t="n"/>
       <c r="X22" s="46" t="n"/>
       <c r="Y22" s="45">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z22" s="46" t="n"/>
       <c r="AA22" s="46" t="n"/>
       <c r="AB22" s="47" t="n"/>
       <c r="AC22" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD22" s="48" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B23" s="50" t="inlineStr">
         <is>
@@ -2844,13 +2714,13 @@
         </is>
       </c>
       <c r="D23" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273</v>
       </c>
       <c r="F23" s="52" t="n">
-        <v>4494.22</v>
+        <v>6819</v>
       </c>
       <c r="G23" s="50" t="inlineStr">
         <is>
@@ -2858,81 +2728,81 @@
         </is>
       </c>
       <c r="H23" s="51" t="n">
-        <v>4.45</v>
+        <v>6.76</v>
       </c>
       <c r="I23" s="51" t="n">
-        <v>27.17</v>
+        <v>41.24</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L23" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M23" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N23" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P23" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R23" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S23" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T23" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U23" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V23" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W23" s="46" t="n"/>
       <c r="X23" s="46" t="n"/>
       <c r="Y23" s="45">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z23" s="46" t="n"/>
       <c r="AA23" s="46" t="n"/>
       <c r="AB23" s="47" t="n"/>
       <c r="AC23" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD23" s="48" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B24" s="50" t="inlineStr">
         <is>
@@ -2948,10 +2818,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273.12</v>
       </c>
       <c r="F24" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273.12</v>
       </c>
       <c r="G24" s="50" t="inlineStr">
         <is>
@@ -2959,74 +2829,74 @@
         </is>
       </c>
       <c r="H24" s="51" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="I24" s="51" t="n">
-        <v>13.58</v>
+        <v>13.76</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L24" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M24" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N24" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P24" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R24" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S24" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T24" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U24" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V24" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W24" s="46" t="n"/>
       <c r="X24" s="46" t="n"/>
       <c r="Y24" s="45">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z24" s="46" t="n"/>
       <c r="AA24" s="46" t="n"/>
       <c r="AB24" s="47" t="n"/>
       <c r="AC24" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD24" s="48" t="n"/>
@@ -3070,99 +2940,269 @@
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L25" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M25" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N25" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P25" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R25" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S25" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T25" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U25" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V25" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W25" s="46" t="n"/>
       <c r="X25" s="46" t="n"/>
       <c r="Y25" s="45">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z25" s="46" t="n"/>
       <c r="AA25" s="46" t="n"/>
       <c r="AB25" s="47" t="n"/>
       <c r="AC25" s="42">
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
+      <c r="AD25" s="48" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="49" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B26" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C26" s="50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D26" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="F26" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="G26" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H26" s="51" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I26" s="51" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="J26" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K26" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L26" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M26" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N26" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O26" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P26" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R26" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S26" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T26" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U26" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V26" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W26" s="46" t="n"/>
+      <c r="X26" s="46" t="n"/>
+      <c r="Y26" s="45">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z26" s="46" t="n"/>
+      <c r="AA26" s="46" t="n"/>
+      <c r="AB26" s="47" t="n"/>
+      <c r="AC26" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD26" s="48" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="49" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B27" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C27" s="50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D27" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="F27" s="52" t="n">
+        <v>4494.22</v>
+      </c>
+      <c r="G27" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H27" s="51" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I27" s="51" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="J27" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K27" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="L27" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M27" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N27" s="44">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O27" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="P27" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q27" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R27" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S27" s="45">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="T27" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="U27" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V27" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W27" s="46" t="n"/>
+      <c r="X27" s="46" t="n"/>
+      <c r="Y27" s="45">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z27" s="46" t="n"/>
+      <c r="AA27" s="46" t="n"/>
+      <c r="AB27" s="47" t="n"/>
+      <c r="AC27" s="42">
         <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
-      <c r="AD25" s="48" t="n"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="53" t="n"/>
-      <c r="F26" s="53" t="n"/>
-      <c r="G26" s="54" t="n"/>
-      <c r="J26" s="53" t="n"/>
-      <c r="K26" s="53" t="n"/>
-      <c r="L26" s="53" t="n"/>
-      <c r="M26" s="56" t="n"/>
-      <c r="W26" s="53" t="n"/>
-      <c r="X26" s="53" t="n"/>
-      <c r="Y26" s="53" t="n"/>
-      <c r="Z26" s="53" t="n"/>
-      <c r="AA26" s="53" t="n"/>
-      <c r="AB26" s="53" t="n"/>
-      <c r="AC26" s="53" t="n"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="53" t="n"/>
-      <c r="F27" s="53" t="n"/>
-      <c r="G27" s="54" t="n"/>
-      <c r="J27" s="53" t="n"/>
-      <c r="K27" s="53" t="n"/>
-      <c r="L27" s="53" t="n"/>
-      <c r="M27" s="56" t="n"/>
-      <c r="W27" s="53" t="n"/>
-      <c r="X27" s="53" t="n"/>
-      <c r="Y27" s="53" t="n"/>
-      <c r="Z27" s="53" t="n"/>
-      <c r="AA27" s="53" t="n"/>
-      <c r="AB27" s="53" t="n"/>
-      <c r="AC27" s="53" t="n"/>
+      <c r="AD27" s="48" t="n"/>
     </row>
     <row r="28">
       <c r="E28" s="53" t="n"/>
@@ -18115,6 +18155,7 @@
       <c r="J962" s="53" t="n"/>
       <c r="K962" s="53" t="n"/>
       <c r="L962" s="53" t="n"/>
+      <c r="M962" s="56" t="n"/>
       <c r="W962" s="53" t="n"/>
       <c r="X962" s="53" t="n"/>
       <c r="Y962" s="53" t="n"/>
@@ -18130,6 +18171,7 @@
       <c r="J963" s="53" t="n"/>
       <c r="K963" s="53" t="n"/>
       <c r="L963" s="53" t="n"/>
+      <c r="M963" s="56" t="n"/>
       <c r="W963" s="53" t="n"/>
       <c r="X963" s="53" t="n"/>
       <c r="Y963" s="53" t="n"/>
@@ -18362,6 +18404,36 @@
       <c r="AA978" s="53" t="n"/>
       <c r="AB978" s="53" t="n"/>
       <c r="AC978" s="53" t="n"/>
+    </row>
+    <row r="979">
+      <c r="E979" s="53" t="n"/>
+      <c r="F979" s="53" t="n"/>
+      <c r="G979" s="54" t="n"/>
+      <c r="J979" s="53" t="n"/>
+      <c r="K979" s="53" t="n"/>
+      <c r="L979" s="53" t="n"/>
+      <c r="W979" s="53" t="n"/>
+      <c r="X979" s="53" t="n"/>
+      <c r="Y979" s="53" t="n"/>
+      <c r="Z979" s="53" t="n"/>
+      <c r="AA979" s="53" t="n"/>
+      <c r="AB979" s="53" t="n"/>
+      <c r="AC979" s="53" t="n"/>
+    </row>
+    <row r="980">
+      <c r="E980" s="53" t="n"/>
+      <c r="F980" s="53" t="n"/>
+      <c r="G980" s="54" t="n"/>
+      <c r="J980" s="53" t="n"/>
+      <c r="K980" s="53" t="n"/>
+      <c r="L980" s="53" t="n"/>
+      <c r="W980" s="53" t="n"/>
+      <c r="X980" s="53" t="n"/>
+      <c r="Y980" s="53" t="n"/>
+      <c r="Z980" s="53" t="n"/>
+      <c r="AA980" s="53" t="n"/>
+      <c r="AB980" s="53" t="n"/>
+      <c r="AC980" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>

--- a/dumps/Stocks/Asian Paints Ltd.xlsx
+++ b/dumps/Stocks/Asian Paints Ltd.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP980"/>
+  <dimension ref="A1:AP982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,310 +1095,178 @@
     </row>
     <row r="5">
       <c r="A5" s="86" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2873.86</v>
+      </c>
+      <c r="F5" t="n">
+        <v>57477.2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CN#252608652444</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>288.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="86" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2845.385</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>56907.7</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608495287</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="86" t="n">
         <v>45959</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E7" s="0" t="n">
         <v>2535.1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F7" s="0" t="n">
         <v>5095.56</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I7" s="0" t="n">
         <v>25.36</v>
       </c>
-      <c r="J5">
+      <c r="J7" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="86" t="n">
+    <row r="8">
+      <c r="A8" s="86" t="n">
         <v>45957</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>2520.7</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>5066.6</v>
       </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>25.2</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J8" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="86" t="n">
+    <row r="9">
+      <c r="A9" s="86" t="n">
         <v>46062</v>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>35.7</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>35.7</v>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="38" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B8" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C8" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D8" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41" t="n">
-        <v>2553.07</v>
-      </c>
-      <c r="F8" s="41">
-        <f>(D5*E5)+I5</f>
-        <v/>
-      </c>
-      <c r="G8" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H8" s="40" t="n"/>
-      <c r="I8" s="40" t="n"/>
-      <c r="J8" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K8" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L8" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M8" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N8" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O8" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P8" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q8" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R8" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S8" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T8" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U8" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V8" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W8" s="46" t="n"/>
-      <c r="X8" s="46" t="n"/>
-      <c r="Y8" s="45">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z8" s="46" t="n"/>
-      <c r="AA8" s="46" t="n"/>
-      <c r="AB8" s="47" t="n"/>
-      <c r="AC8" s="42">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD8" s="48" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="38" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B9" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C9" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D9" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="41" t="n">
-        <v>2538.57</v>
-      </c>
-      <c r="F9" s="41">
-        <f>(D6*E6)+I6</f>
-        <v/>
-      </c>
-      <c r="G9" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H9" s="40" t="n"/>
-      <c r="I9" s="40" t="n"/>
-      <c r="J9" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K9" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L9" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M9" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N9" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O9" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P9" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R9" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S9" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T9" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U9" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V9" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W9" s="46" t="n"/>
-      <c r="X9" s="46" t="n"/>
-      <c r="Y9" s="45">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z9" s="46" t="n"/>
-      <c r="AA9" s="46" t="n"/>
-      <c r="AB9" s="47" t="n"/>
-      <c r="AC9" s="42">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD9" s="48" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="38" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B10" s="39" t="inlineStr">
         <is>
@@ -1414,10 +1282,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="41" t="n">
-        <v>2514.91</v>
+        <v>2553.07</v>
       </c>
       <c r="F10" s="41">
-        <f>(D7*E7)+I7</f>
+        <f>(D5*E5)+I5</f>
         <v/>
       </c>
       <c r="G10" s="39" t="inlineStr">
@@ -1432,71 +1300,71 @@
         <v/>
       </c>
       <c r="K10" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L10" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M10" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N10" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O10" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P10" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q10" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R10" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S10" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T10" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U10" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V10" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W10" s="46" t="n"/>
       <c r="X10" s="46" t="n"/>
       <c r="Y10" s="45">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z10" s="46" t="n"/>
       <c r="AA10" s="46" t="n"/>
       <c r="AB10" s="47" t="n"/>
       <c r="AC10" s="42">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD10" s="48" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="38" t="n">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="B11" s="39" t="inlineStr">
         <is>
@@ -1509,13 +1377,13 @@
         </is>
       </c>
       <c r="D11" s="40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="41" t="n">
-        <v>2539.28</v>
+        <v>2538.57</v>
       </c>
       <c r="F11" s="41">
-        <f>(D8*E8)+I8</f>
+        <f>(D6*E6)+I6</f>
         <v/>
       </c>
       <c r="G11" s="39" t="inlineStr">
@@ -1530,71 +1398,71 @@
         <v/>
       </c>
       <c r="K11" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L11" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M11" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N11" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O11" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P11" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q11" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R11" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S11" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T11" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U11" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V11" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W11" s="46" t="n"/>
       <c r="X11" s="46" t="n"/>
       <c r="Y11" s="45">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z11" s="46" t="n"/>
       <c r="AA11" s="46" t="n"/>
       <c r="AB11" s="47" t="n"/>
       <c r="AC11" s="42">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD11" s="48" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="38" t="n">
-        <v>45924</v>
+        <v>45954</v>
       </c>
       <c r="B12" s="39" t="inlineStr">
         <is>
@@ -1607,13 +1475,13 @@
         </is>
       </c>
       <c r="D12" s="40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="41" t="n">
-        <v>2487.71</v>
+        <v>2514.91</v>
       </c>
       <c r="F12" s="41">
-        <f>(D9*E9)+I9</f>
+        <f>(D7*E7)+I7</f>
         <v/>
       </c>
       <c r="G12" s="39" t="inlineStr">
@@ -1628,71 +1496,71 @@
         <v/>
       </c>
       <c r="K12" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L12" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M12" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N12" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O12" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P12" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q12" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R12" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S12" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T12" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U12" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V12" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W12" s="46" t="n"/>
       <c r="X12" s="46" t="n"/>
       <c r="Y12" s="45">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z12" s="46" t="n"/>
       <c r="AA12" s="46" t="n"/>
       <c r="AB12" s="47" t="n"/>
       <c r="AC12" s="42">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD12" s="48" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="38" t="n">
-        <v>45855</v>
+        <v>45950</v>
       </c>
       <c r="B13" s="39" t="inlineStr">
         <is>
@@ -1705,95 +1573,92 @@
         </is>
       </c>
       <c r="D13" s="40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="41" t="n">
-        <v>2420.93</v>
-      </c>
-      <c r="F13" s="41" t="n">
-        <v>4841.86</v>
+        <v>2539.28</v>
+      </c>
+      <c r="F13" s="41">
+        <f>(D8*E8)+I8</f>
+        <v/>
       </c>
       <c r="G13" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H13" s="40" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="I13" s="40" t="n">
-        <v>29.25</v>
-      </c>
+      <c r="H13" s="40" t="n"/>
+      <c r="I13" s="40" t="n"/>
       <c r="J13" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K13" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L13" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M13" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N13" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O13" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P13" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q13" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R13" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S13" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T13" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U13" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V13" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W13" s="46" t="n"/>
       <c r="X13" s="46" t="n"/>
       <c r="Y13" s="45">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z13" s="46" t="n"/>
       <c r="AA13" s="46" t="n"/>
       <c r="AB13" s="47" t="n"/>
       <c r="AC13" s="42">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD13" s="48" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="38" t="n">
-        <v>45855</v>
+        <v>45924</v>
       </c>
       <c r="B14" s="39" t="inlineStr">
         <is>
@@ -1806,95 +1671,92 @@
         </is>
       </c>
       <c r="D14" s="40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="41" t="n">
-        <v>2420.93</v>
-      </c>
-      <c r="F14" s="41" t="n">
-        <v>2420.93</v>
+        <v>2487.71</v>
+      </c>
+      <c r="F14" s="41">
+        <f>(D9*E9)+I9</f>
+        <v/>
       </c>
       <c r="G14" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H14" s="40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I14" s="40" t="n">
-        <v>14.63</v>
-      </c>
+      <c r="H14" s="40" t="n"/>
+      <c r="I14" s="40" t="n"/>
       <c r="J14" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K14" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L14" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M14" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N14" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O14" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P14" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q14" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R14" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S14" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T14" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U14" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V14" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W14" s="46" t="n"/>
       <c r="X14" s="46" t="n"/>
       <c r="Y14" s="45">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z14" s="46" t="n"/>
       <c r="AA14" s="46" t="n"/>
       <c r="AB14" s="47" t="n"/>
       <c r="AC14" s="42">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD14" s="48" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B15" s="39" t="inlineStr">
         <is>
@@ -1907,13 +1769,13 @@
         </is>
       </c>
       <c r="D15" s="40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="41" t="n">
-        <v>2269.87</v>
+        <v>2420.93</v>
       </c>
       <c r="F15" s="41" t="n">
-        <v>13619.21</v>
+        <v>4841.86</v>
       </c>
       <c r="G15" s="39" t="inlineStr">
         <is>
@@ -1921,85 +1783,85 @@
         </is>
       </c>
       <c r="H15" s="40" t="n">
-        <v>13.5</v>
+        <v>4.81</v>
       </c>
       <c r="I15" s="40" t="n">
-        <v>82.31</v>
+        <v>29.25</v>
       </c>
       <c r="J15" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K15" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L15" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M15" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N15" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O15" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P15" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q15" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R15" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S15" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T15" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U15" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V15" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W15" s="46" t="n"/>
       <c r="X15" s="46" t="n"/>
       <c r="Y15" s="45">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z15" s="46" t="n"/>
       <c r="AA15" s="46" t="n"/>
       <c r="AB15" s="47" t="n"/>
       <c r="AC15" s="42">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD15" s="48" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="38" t="n">
-        <v>45818</v>
+        <v>45855</v>
       </c>
       <c r="B16" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="39" t="inlineStr">
@@ -2008,95 +1870,95 @@
         </is>
       </c>
       <c r="D16" s="40" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E16" s="41" t="n">
-        <v>20.55</v>
+        <v>2420.93</v>
       </c>
       <c r="F16" s="41" t="n">
-        <v>328.8</v>
+        <v>2420.93</v>
       </c>
       <c r="G16" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H16" s="40" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I16" s="40" t="n">
-        <v>0</v>
+        <v>14.63</v>
       </c>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L16" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M16" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N16" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P16" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R16" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S16" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T16" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U16" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V16" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W16" s="46" t="n"/>
       <c r="X16" s="46" t="n"/>
       <c r="Y16" s="45">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z16" s="46" t="n"/>
       <c r="AA16" s="46" t="n"/>
       <c r="AB16" s="47" t="n"/>
       <c r="AC16" s="42">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD16" s="48" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B17" s="39" t="inlineStr">
         <is>
@@ -2109,13 +1971,13 @@
         </is>
       </c>
       <c r="D17" s="40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" s="41" t="n">
-        <v>2267.87</v>
+        <v>2269.87</v>
       </c>
       <c r="F17" s="41" t="n">
-        <v>2267.87</v>
+        <v>13619.21</v>
       </c>
       <c r="G17" s="39" t="inlineStr">
         <is>
@@ -2123,85 +1985,85 @@
         </is>
       </c>
       <c r="H17" s="40" t="n">
-        <v>2.26</v>
+        <v>13.5</v>
       </c>
       <c r="I17" s="40" t="n">
-        <v>13.71</v>
+        <v>82.31</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L17" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M17" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N17" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P17" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R17" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S17" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T17" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U17" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V17" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W17" s="46" t="n"/>
       <c r="X17" s="46" t="n"/>
       <c r="Y17" s="45">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z17" s="46" t="n"/>
       <c r="AA17" s="46" t="n"/>
       <c r="AB17" s="47" t="n"/>
       <c r="AC17" s="42">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD17" s="48" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="38" t="n">
-        <v>45812</v>
+        <v>45818</v>
       </c>
       <c r="B18" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C18" s="39" t="inlineStr">
@@ -2210,95 +2072,95 @@
         </is>
       </c>
       <c r="D18" s="40" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E18" s="41" t="n">
-        <v>2267.87</v>
+        <v>20.55</v>
       </c>
       <c r="F18" s="41" t="n">
-        <v>2267.87</v>
+        <v>328.8</v>
       </c>
       <c r="G18" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
         </is>
       </c>
       <c r="H18" s="40" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="I18" s="40" t="n">
-        <v>13.71</v>
+        <v>0</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L18" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M18" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N18" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P18" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R18" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S18" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T18" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U18" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V18" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W18" s="46" t="n"/>
       <c r="X18" s="46" t="n"/>
       <c r="Y18" s="45">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z18" s="46" t="n"/>
       <c r="AA18" s="46" t="n"/>
       <c r="AB18" s="47" t="n"/>
       <c r="AC18" s="42">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD18" s="48" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B19" s="39" t="inlineStr">
         <is>
@@ -2311,13 +2173,13 @@
         </is>
       </c>
       <c r="D19" s="40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="41" t="n">
-        <v>2281.46</v>
+        <v>2267.87</v>
       </c>
       <c r="F19" s="41" t="n">
-        <v>4562.92</v>
+        <v>2267.87</v>
       </c>
       <c r="G19" s="39" t="inlineStr">
         <is>
@@ -2325,282 +2187,283 @@
         </is>
       </c>
       <c r="H19" s="40" t="n">
-        <v>4.53</v>
+        <v>2.26</v>
       </c>
       <c r="I19" s="40" t="n">
-        <v>27.59</v>
+        <v>13.71</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L19" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M19" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N19" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P19" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R19" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S19" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T19" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U19" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V19" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W19" s="46" t="n"/>
       <c r="X19" s="46" t="n"/>
       <c r="Y19" s="45">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z19" s="46" t="n"/>
       <c r="AA19" s="46" t="n"/>
       <c r="AB19" s="47" t="n"/>
       <c r="AC19" s="42">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD19" s="48" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B20" s="50" t="inlineStr">
+      <c r="A20" s="38" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B20" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C20" s="50" t="inlineStr">
+      <c r="C20" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D20" s="51" t="n">
+      <c r="D20" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="52" t="n">
-        <v>2293.04</v>
-      </c>
-      <c r="F20" s="52">
-        <f>E17*D17 + sum(H17:I17)</f>
-        <v/>
-      </c>
-      <c r="G20" s="50" t="inlineStr">
+      <c r="E20" s="41" t="n">
+        <v>2267.87</v>
+      </c>
+      <c r="F20" s="41" t="n">
+        <v>2267.87</v>
+      </c>
+      <c r="G20" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H20" s="51" t="n"/>
-      <c r="I20" s="51" t="n">
-        <v>16.14</v>
+      <c r="H20" s="40" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I20" s="40" t="n">
+        <v>13.71</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L20" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M20" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N20" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P20" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R20" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S20" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T20" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U20" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V20" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W20" s="46" t="n"/>
       <c r="X20" s="46" t="n"/>
       <c r="Y20" s="45">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z20" s="46" t="n"/>
       <c r="AA20" s="46" t="n"/>
       <c r="AB20" s="47" t="n"/>
       <c r="AC20" s="42">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD20" s="48" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B21" s="50" t="inlineStr">
+      <c r="A21" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B21" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C21" s="50" t="inlineStr">
+      <c r="C21" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D21" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="52" t="n">
-        <v>2243.04</v>
-      </c>
-      <c r="F21" s="52" t="n">
-        <v>2243.04</v>
-      </c>
-      <c r="G21" s="50" t="inlineStr">
+      <c r="D21" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="41" t="n">
+        <v>2281.46</v>
+      </c>
+      <c r="F21" s="41" t="n">
+        <v>4562.92</v>
+      </c>
+      <c r="G21" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H21" s="51" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I21" s="51" t="n">
-        <v>13.55</v>
+      <c r="H21" s="40" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="I21" s="40" t="n">
+        <v>27.59</v>
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L21" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M21" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N21" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P21" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R21" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S21" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T21" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U21" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V21" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W21" s="46" t="n"/>
       <c r="X21" s="46" t="n"/>
       <c r="Y21" s="45">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z21" s="46" t="n"/>
       <c r="AA21" s="46" t="n"/>
       <c r="AB21" s="47" t="n"/>
       <c r="AC21" s="42">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD21" s="48" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="49" t="n">
-        <v>45716</v>
+        <v>45734</v>
       </c>
       <c r="B22" s="50" t="inlineStr">
         <is>
@@ -2616,92 +2479,91 @@
         <v>1</v>
       </c>
       <c r="E22" s="52" t="n">
-        <v>2204.63</v>
-      </c>
-      <c r="F22" s="52" t="n">
-        <v>2204.63</v>
+        <v>2293.04</v>
+      </c>
+      <c r="F22" s="52">
+        <f>E17*D17 + sum(H17:I17)</f>
+        <v/>
       </c>
       <c r="G22" s="50" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H22" s="51" t="n">
-        <v>2.18</v>
-      </c>
+      <c r="H22" s="51" t="n"/>
       <c r="I22" s="51" t="n">
-        <v>13.35</v>
+        <v>16.14</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L22" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M22" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N22" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P22" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R22" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S22" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T22" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U22" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V22" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W22" s="46" t="n"/>
       <c r="X22" s="46" t="n"/>
       <c r="Y22" s="45">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z22" s="46" t="n"/>
       <c r="AA22" s="46" t="n"/>
       <c r="AB22" s="47" t="n"/>
       <c r="AC22" s="42">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD22" s="48" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="49" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B23" s="50" t="inlineStr">
         <is>
@@ -2714,13 +2576,13 @@
         </is>
       </c>
       <c r="D23" s="51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="52" t="n">
-        <v>2273</v>
+        <v>2243.04</v>
       </c>
       <c r="F23" s="52" t="n">
-        <v>6819</v>
+        <v>2243.04</v>
       </c>
       <c r="G23" s="50" t="inlineStr">
         <is>
@@ -2728,81 +2590,81 @@
         </is>
       </c>
       <c r="H23" s="51" t="n">
-        <v>6.76</v>
+        <v>2.24</v>
       </c>
       <c r="I23" s="51" t="n">
-        <v>41.24</v>
+        <v>13.55</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L23" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M23" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N23" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P23" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R23" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S23" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T23" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U23" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V23" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W23" s="46" t="n"/>
       <c r="X23" s="46" t="n"/>
       <c r="Y23" s="45">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z23" s="46" t="n"/>
       <c r="AA23" s="46" t="n"/>
       <c r="AB23" s="47" t="n"/>
       <c r="AC23" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD23" s="48" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="49" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B24" s="50" t="inlineStr">
         <is>
@@ -2818,10 +2680,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="52" t="n">
-        <v>2273.12</v>
+        <v>2204.63</v>
       </c>
       <c r="F24" s="52" t="n">
-        <v>2273.12</v>
+        <v>2204.63</v>
       </c>
       <c r="G24" s="50" t="inlineStr">
         <is>
@@ -2829,81 +2691,81 @@
         </is>
       </c>
       <c r="H24" s="51" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I24" s="51" t="n">
-        <v>13.76</v>
+        <v>13.35</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L24" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M24" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N24" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P24" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R24" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S24" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T24" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U24" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V24" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W24" s="46" t="n"/>
       <c r="X24" s="46" t="n"/>
       <c r="Y24" s="45">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z24" s="46" t="n"/>
       <c r="AA24" s="46" t="n"/>
       <c r="AB24" s="47" t="n"/>
       <c r="AC24" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD24" s="48" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B25" s="50" t="inlineStr">
         <is>
@@ -2916,13 +2778,13 @@
         </is>
       </c>
       <c r="D25" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273</v>
       </c>
       <c r="F25" s="52" t="n">
-        <v>4494.22</v>
+        <v>6819</v>
       </c>
       <c r="G25" s="50" t="inlineStr">
         <is>
@@ -2930,81 +2792,81 @@
         </is>
       </c>
       <c r="H25" s="51" t="n">
-        <v>4.45</v>
+        <v>6.76</v>
       </c>
       <c r="I25" s="51" t="n">
-        <v>27.17</v>
+        <v>41.24</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L25" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M25" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N25" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P25" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R25" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S25" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T25" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U25" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V25" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W25" s="46" t="n"/>
       <c r="X25" s="46" t="n"/>
       <c r="Y25" s="45">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z25" s="46" t="n"/>
       <c r="AA25" s="46" t="n"/>
       <c r="AB25" s="47" t="n"/>
       <c r="AC25" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD25" s="48" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B26" s="50" t="inlineStr">
         <is>
@@ -3020,10 +2882,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273.12</v>
       </c>
       <c r="F26" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273.12</v>
       </c>
       <c r="G26" s="50" t="inlineStr">
         <is>
@@ -3031,74 +2893,74 @@
         </is>
       </c>
       <c r="H26" s="51" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="I26" s="51" t="n">
-        <v>13.58</v>
+        <v>13.76</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L26" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M26" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N26" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P26" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R26" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S26" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T26" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U26" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V26" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W26" s="46" t="n"/>
       <c r="X26" s="46" t="n"/>
       <c r="Y26" s="45">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z26" s="46" t="n"/>
       <c r="AA26" s="46" t="n"/>
       <c r="AB26" s="47" t="n"/>
       <c r="AC26" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD26" s="48" t="n"/>
@@ -3142,99 +3004,269 @@
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L27" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M27" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N27" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P27" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R27" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S27" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T27" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U27" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V27" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W27" s="46" t="n"/>
       <c r="X27" s="46" t="n"/>
       <c r="Y27" s="45">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z27" s="46" t="n"/>
       <c r="AA27" s="46" t="n"/>
       <c r="AB27" s="47" t="n"/>
       <c r="AC27" s="42">
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
+      <c r="AD27" s="48" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="49" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B28" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C28" s="50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D28" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="F28" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="G28" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H28" s="51" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I28" s="51" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="J28" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K28" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L28" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M28" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N28" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O28" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P28" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R28" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S28" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T28" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U28" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V28" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W28" s="46" t="n"/>
+      <c r="X28" s="46" t="n"/>
+      <c r="Y28" s="45">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z28" s="46" t="n"/>
+      <c r="AA28" s="46" t="n"/>
+      <c r="AB28" s="47" t="n"/>
+      <c r="AC28" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD28" s="48" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="49" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B29" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C29" s="50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D29" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="F29" s="52" t="n">
+        <v>4494.22</v>
+      </c>
+      <c r="G29" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H29" s="51" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I29" s="51" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="J29" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K29" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="L29" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M29" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N29" s="44">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O29" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="P29" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R29" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S29" s="45">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="T29" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="U29" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V29" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W29" s="46" t="n"/>
+      <c r="X29" s="46" t="n"/>
+      <c r="Y29" s="45">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z29" s="46" t="n"/>
+      <c r="AA29" s="46" t="n"/>
+      <c r="AB29" s="47" t="n"/>
+      <c r="AC29" s="42">
         <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
-      <c r="AD27" s="48" t="n"/>
-    </row>
-    <row r="28">
-      <c r="E28" s="53" t="n"/>
-      <c r="F28" s="53" t="n"/>
-      <c r="G28" s="54" t="n"/>
-      <c r="J28" s="53" t="n"/>
-      <c r="K28" s="53" t="n"/>
-      <c r="L28" s="53" t="n"/>
-      <c r="M28" s="56" t="n"/>
-      <c r="W28" s="53" t="n"/>
-      <c r="X28" s="53" t="n"/>
-      <c r="Y28" s="53" t="n"/>
-      <c r="Z28" s="53" t="n"/>
-      <c r="AA28" s="53" t="n"/>
-      <c r="AB28" s="53" t="n"/>
-      <c r="AC28" s="53" t="n"/>
-    </row>
-    <row r="29">
-      <c r="E29" s="53" t="n"/>
-      <c r="F29" s="53" t="n"/>
-      <c r="G29" s="54" t="n"/>
-      <c r="J29" s="53" t="n"/>
-      <c r="K29" s="53" t="n"/>
-      <c r="L29" s="53" t="n"/>
-      <c r="M29" s="56" t="n"/>
-      <c r="W29" s="53" t="n"/>
-      <c r="X29" s="53" t="n"/>
-      <c r="Y29" s="53" t="n"/>
-      <c r="Z29" s="53" t="n"/>
-      <c r="AA29" s="53" t="n"/>
-      <c r="AB29" s="53" t="n"/>
-      <c r="AC29" s="53" t="n"/>
+      <c r="AD29" s="48" t="n"/>
     </row>
     <row r="30">
       <c r="E30" s="53" t="n"/>
@@ -18187,6 +18219,7 @@
       <c r="J964" s="53" t="n"/>
       <c r="K964" s="53" t="n"/>
       <c r="L964" s="53" t="n"/>
+      <c r="M964" s="56" t="n"/>
       <c r="W964" s="53" t="n"/>
       <c r="X964" s="53" t="n"/>
       <c r="Y964" s="53" t="n"/>
@@ -18202,6 +18235,7 @@
       <c r="J965" s="53" t="n"/>
       <c r="K965" s="53" t="n"/>
       <c r="L965" s="53" t="n"/>
+      <c r="M965" s="56" t="n"/>
       <c r="W965" s="53" t="n"/>
       <c r="X965" s="53" t="n"/>
       <c r="Y965" s="53" t="n"/>
@@ -18434,6 +18468,36 @@
       <c r="AA980" s="53" t="n"/>
       <c r="AB980" s="53" t="n"/>
       <c r="AC980" s="53" t="n"/>
+    </row>
+    <row r="981">
+      <c r="E981" s="53" t="n"/>
+      <c r="F981" s="53" t="n"/>
+      <c r="G981" s="54" t="n"/>
+      <c r="J981" s="53" t="n"/>
+      <c r="K981" s="53" t="n"/>
+      <c r="L981" s="53" t="n"/>
+      <c r="W981" s="53" t="n"/>
+      <c r="X981" s="53" t="n"/>
+      <c r="Y981" s="53" t="n"/>
+      <c r="Z981" s="53" t="n"/>
+      <c r="AA981" s="53" t="n"/>
+      <c r="AB981" s="53" t="n"/>
+      <c r="AC981" s="53" t="n"/>
+    </row>
+    <row r="982">
+      <c r="E982" s="53" t="n"/>
+      <c r="F982" s="53" t="n"/>
+      <c r="G982" s="54" t="n"/>
+      <c r="J982" s="53" t="n"/>
+      <c r="K982" s="53" t="n"/>
+      <c r="L982" s="53" t="n"/>
+      <c r="W982" s="53" t="n"/>
+      <c r="X982" s="53" t="n"/>
+      <c r="Y982" s="53" t="n"/>
+      <c r="Z982" s="53" t="n"/>
+      <c r="AA982" s="53" t="n"/>
+      <c r="AB982" s="53" t="n"/>
+      <c r="AC982" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>

--- a/dumps/Stocks/Asian Paints Ltd.xlsx
+++ b/dumps/Stocks/Asian Paints Ltd.xlsx
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -437,6 +437,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +748,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP982"/>
+  <dimension ref="A1:AP984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,11 +1098,11 @@
     </row>
     <row r="5">
       <c r="A5" s="86" t="n">
-        <v>45987</v>
+        <v>46065</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1108,30 +1111,27 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2873.86</v>
+        <v>2392.5</v>
       </c>
       <c r="F5" t="n">
-        <v>57477.2</v>
+        <v>4785</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608652444</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I5" t="n">
-        <v>288.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="86" t="n">
-        <v>45982</v>
+        <v>46065</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1140,329 +1140,194 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2392.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2392.5</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="86" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E7" s="0" t="n">
+        <v>2873.86</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>57477.2</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608652444</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>288.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="86" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>2845.385</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>56907.7</v>
       </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>CN#252608495287</t>
         </is>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>286</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="86" t="n">
+    <row r="9">
+      <c r="A9" s="86" t="n">
         <v>45959</v>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>2535.1</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>5095.56</v>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>25.36</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J9" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="86" t="n">
+    <row r="10">
+      <c r="A10" s="86" t="n">
         <v>45957</v>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>2520.7</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>5066.6</v>
       </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="G10" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>25.2</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J10" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="86" t="n">
+    <row r="11">
+      <c r="A11" s="86" t="n">
         <v>46062</v>
       </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C9" s="0" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>35.7</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>35.7</v>
       </c>
-      <c r="G9" s="0" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
         <is>
           <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B10" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C10" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D10" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="41" t="n">
-        <v>2553.07</v>
-      </c>
-      <c r="F10" s="41">
-        <f>(D5*E5)+I5</f>
-        <v/>
-      </c>
-      <c r="G10" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H10" s="40" t="n"/>
-      <c r="I10" s="40" t="n"/>
-      <c r="J10" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K10" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L10" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M10" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N10" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P10" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R10" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S10" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T10" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U10" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V10" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W10" s="46" t="n"/>
-      <c r="X10" s="46" t="n"/>
-      <c r="Y10" s="45">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z10" s="46" t="n"/>
-      <c r="AA10" s="46" t="n"/>
-      <c r="AB10" s="47" t="n"/>
-      <c r="AC10" s="42">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD10" s="48" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="38" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B11" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C11" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D11" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="41" t="n">
-        <v>2538.57</v>
-      </c>
-      <c r="F11" s="41">
-        <f>(D6*E6)+I6</f>
-        <v/>
-      </c>
-      <c r="G11" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H11" s="40" t="n"/>
-      <c r="I11" s="40" t="n"/>
-      <c r="J11" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K11" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L11" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M11" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N11" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O11" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P11" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R11" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S11" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T11" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U11" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V11" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W11" s="46" t="n"/>
-      <c r="X11" s="46" t="n"/>
-      <c r="Y11" s="45">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z11" s="46" t="n"/>
-      <c r="AA11" s="46" t="n"/>
-      <c r="AB11" s="47" t="n"/>
-      <c r="AC11" s="42">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD11" s="48" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="38" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B12" s="39" t="inlineStr">
         <is>
@@ -1478,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="41" t="n">
-        <v>2514.91</v>
+        <v>2553.07</v>
       </c>
       <c r="F12" s="41">
-        <f>(D7*E7)+I7</f>
+        <f>(D5*E5)+I5</f>
         <v/>
       </c>
       <c r="G12" s="39" t="inlineStr">
@@ -1496,71 +1361,71 @@
         <v/>
       </c>
       <c r="K12" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L12" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M12" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N12" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O12" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P12" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q12" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R12" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S12" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T12" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U12" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V12" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W12" s="46" t="n"/>
       <c r="X12" s="46" t="n"/>
       <c r="Y12" s="45">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z12" s="46" t="n"/>
       <c r="AA12" s="46" t="n"/>
       <c r="AB12" s="47" t="n"/>
       <c r="AC12" s="42">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD12" s="48" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="38" t="n">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="B13" s="39" t="inlineStr">
         <is>
@@ -1573,13 +1438,13 @@
         </is>
       </c>
       <c r="D13" s="40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="41" t="n">
-        <v>2539.28</v>
+        <v>2538.57</v>
       </c>
       <c r="F13" s="41">
-        <f>(D8*E8)+I8</f>
+        <f>(D6*E6)+I6</f>
         <v/>
       </c>
       <c r="G13" s="39" t="inlineStr">
@@ -1594,71 +1459,71 @@
         <v/>
       </c>
       <c r="K13" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L13" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M13" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N13" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O13" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P13" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q13" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R13" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S13" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T13" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U13" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V13" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W13" s="46" t="n"/>
       <c r="X13" s="46" t="n"/>
       <c r="Y13" s="45">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z13" s="46" t="n"/>
       <c r="AA13" s="46" t="n"/>
       <c r="AB13" s="47" t="n"/>
       <c r="AC13" s="42">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD13" s="48" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="38" t="n">
-        <v>45924</v>
+        <v>45954</v>
       </c>
       <c r="B14" s="39" t="inlineStr">
         <is>
@@ -1671,13 +1536,13 @@
         </is>
       </c>
       <c r="D14" s="40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="41" t="n">
-        <v>2487.71</v>
+        <v>2514.91</v>
       </c>
       <c r="F14" s="41">
-        <f>(D9*E9)+I9</f>
+        <f>(D7*E7)+I7</f>
         <v/>
       </c>
       <c r="G14" s="39" t="inlineStr">
@@ -1692,71 +1557,71 @@
         <v/>
       </c>
       <c r="K14" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L14" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M14" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N14" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O14" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P14" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q14" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R14" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S14" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T14" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U14" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V14" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W14" s="46" t="n"/>
       <c r="X14" s="46" t="n"/>
       <c r="Y14" s="45">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z14" s="46" t="n"/>
       <c r="AA14" s="46" t="n"/>
       <c r="AB14" s="47" t="n"/>
       <c r="AC14" s="42">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD14" s="48" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="38" t="n">
-        <v>45855</v>
+        <v>45950</v>
       </c>
       <c r="B15" s="39" t="inlineStr">
         <is>
@@ -1769,95 +1634,92 @@
         </is>
       </c>
       <c r="D15" s="40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="41" t="n">
-        <v>2420.93</v>
-      </c>
-      <c r="F15" s="41" t="n">
-        <v>4841.86</v>
+        <v>2539.28</v>
+      </c>
+      <c r="F15" s="41">
+        <f>(D8*E8)+I8</f>
+        <v/>
       </c>
       <c r="G15" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H15" s="40" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="I15" s="40" t="n">
-        <v>29.25</v>
-      </c>
+      <c r="H15" s="40" t="n"/>
+      <c r="I15" s="40" t="n"/>
       <c r="J15" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K15" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L15" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M15" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N15" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O15" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P15" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q15" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R15" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S15" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T15" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U15" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V15" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W15" s="46" t="n"/>
       <c r="X15" s="46" t="n"/>
       <c r="Y15" s="45">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z15" s="46" t="n"/>
       <c r="AA15" s="46" t="n"/>
       <c r="AB15" s="47" t="n"/>
       <c r="AC15" s="42">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD15" s="48" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="38" t="n">
-        <v>45855</v>
+        <v>45924</v>
       </c>
       <c r="B16" s="39" t="inlineStr">
         <is>
@@ -1870,95 +1732,92 @@
         </is>
       </c>
       <c r="D16" s="40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="41" t="n">
-        <v>2420.93</v>
-      </c>
-      <c r="F16" s="41" t="n">
-        <v>2420.93</v>
+        <v>2487.71</v>
+      </c>
+      <c r="F16" s="41">
+        <f>(D9*E9)+I9</f>
+        <v/>
       </c>
       <c r="G16" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H16" s="40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I16" s="40" t="n">
-        <v>14.63</v>
-      </c>
+      <c r="H16" s="40" t="n"/>
+      <c r="I16" s="40" t="n"/>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L16" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M16" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N16" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P16" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R16" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S16" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T16" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U16" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V16" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W16" s="46" t="n"/>
       <c r="X16" s="46" t="n"/>
       <c r="Y16" s="45">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z16" s="46" t="n"/>
       <c r="AA16" s="46" t="n"/>
       <c r="AB16" s="47" t="n"/>
       <c r="AC16" s="42">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD16" s="48" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B17" s="39" t="inlineStr">
         <is>
@@ -1971,13 +1830,13 @@
         </is>
       </c>
       <c r="D17" s="40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17" s="41" t="n">
-        <v>2269.87</v>
+        <v>2420.93</v>
       </c>
       <c r="F17" s="41" t="n">
-        <v>13619.21</v>
+        <v>4841.86</v>
       </c>
       <c r="G17" s="39" t="inlineStr">
         <is>
@@ -1985,85 +1844,85 @@
         </is>
       </c>
       <c r="H17" s="40" t="n">
-        <v>13.5</v>
+        <v>4.81</v>
       </c>
       <c r="I17" s="40" t="n">
-        <v>82.31</v>
+        <v>29.25</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L17" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M17" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N17" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P17" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R17" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S17" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T17" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U17" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V17" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W17" s="46" t="n"/>
       <c r="X17" s="46" t="n"/>
       <c r="Y17" s="45">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z17" s="46" t="n"/>
       <c r="AA17" s="46" t="n"/>
       <c r="AB17" s="47" t="n"/>
       <c r="AC17" s="42">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD17" s="48" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="38" t="n">
-        <v>45818</v>
+        <v>45855</v>
       </c>
       <c r="B18" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="39" t="inlineStr">
@@ -2072,95 +1931,95 @@
         </is>
       </c>
       <c r="D18" s="40" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E18" s="41" t="n">
-        <v>20.55</v>
+        <v>2420.93</v>
       </c>
       <c r="F18" s="41" t="n">
-        <v>328.8</v>
+        <v>2420.93</v>
       </c>
       <c r="G18" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H18" s="40" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I18" s="40" t="n">
-        <v>0</v>
+        <v>14.63</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L18" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M18" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N18" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P18" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R18" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S18" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T18" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U18" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V18" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W18" s="46" t="n"/>
       <c r="X18" s="46" t="n"/>
       <c r="Y18" s="45">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z18" s="46" t="n"/>
       <c r="AA18" s="46" t="n"/>
       <c r="AB18" s="47" t="n"/>
       <c r="AC18" s="42">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD18" s="48" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B19" s="39" t="inlineStr">
         <is>
@@ -2173,13 +2032,13 @@
         </is>
       </c>
       <c r="D19" s="40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" s="41" t="n">
-        <v>2267.87</v>
+        <v>2269.87</v>
       </c>
       <c r="F19" s="41" t="n">
-        <v>2267.87</v>
+        <v>13619.21</v>
       </c>
       <c r="G19" s="39" t="inlineStr">
         <is>
@@ -2187,85 +2046,85 @@
         </is>
       </c>
       <c r="H19" s="40" t="n">
-        <v>2.26</v>
+        <v>13.5</v>
       </c>
       <c r="I19" s="40" t="n">
-        <v>13.71</v>
+        <v>82.31</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L19" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M19" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N19" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P19" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R19" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S19" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T19" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U19" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V19" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W19" s="46" t="n"/>
       <c r="X19" s="46" t="n"/>
       <c r="Y19" s="45">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z19" s="46" t="n"/>
       <c r="AA19" s="46" t="n"/>
       <c r="AB19" s="47" t="n"/>
       <c r="AC19" s="42">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD19" s="48" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="38" t="n">
-        <v>45812</v>
+        <v>45818</v>
       </c>
       <c r="B20" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C20" s="39" t="inlineStr">
@@ -2274,95 +2133,95 @@
         </is>
       </c>
       <c r="D20" s="40" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E20" s="41" t="n">
-        <v>2267.87</v>
+        <v>20.55</v>
       </c>
       <c r="F20" s="41" t="n">
-        <v>2267.87</v>
+        <v>328.8</v>
       </c>
       <c r="G20" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
         </is>
       </c>
       <c r="H20" s="40" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="I20" s="40" t="n">
-        <v>13.71</v>
+        <v>0</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L20" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M20" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N20" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P20" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R20" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S20" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T20" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U20" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V20" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W20" s="46" t="n"/>
       <c r="X20" s="46" t="n"/>
       <c r="Y20" s="45">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z20" s="46" t="n"/>
       <c r="AA20" s="46" t="n"/>
       <c r="AB20" s="47" t="n"/>
       <c r="AC20" s="42">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD20" s="48" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B21" s="39" t="inlineStr">
         <is>
@@ -2375,13 +2234,13 @@
         </is>
       </c>
       <c r="D21" s="40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="41" t="n">
-        <v>2281.46</v>
+        <v>2267.87</v>
       </c>
       <c r="F21" s="41" t="n">
-        <v>4562.92</v>
+        <v>2267.87</v>
       </c>
       <c r="G21" s="39" t="inlineStr">
         <is>
@@ -2389,282 +2248,283 @@
         </is>
       </c>
       <c r="H21" s="40" t="n">
-        <v>4.53</v>
+        <v>2.26</v>
       </c>
       <c r="I21" s="40" t="n">
-        <v>27.59</v>
+        <v>13.71</v>
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L21" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M21" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N21" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P21" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R21" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S21" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T21" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U21" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V21" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W21" s="46" t="n"/>
       <c r="X21" s="46" t="n"/>
       <c r="Y21" s="45">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z21" s="46" t="n"/>
       <c r="AA21" s="46" t="n"/>
       <c r="AB21" s="47" t="n"/>
       <c r="AC21" s="42">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD21" s="48" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B22" s="50" t="inlineStr">
+      <c r="A22" s="38" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B22" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C22" s="50" t="inlineStr">
+      <c r="C22" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D22" s="51" t="n">
+      <c r="D22" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="52" t="n">
-        <v>2293.04</v>
-      </c>
-      <c r="F22" s="52">
-        <f>E17*D17 + sum(H17:I17)</f>
-        <v/>
-      </c>
-      <c r="G22" s="50" t="inlineStr">
+      <c r="E22" s="41" t="n">
+        <v>2267.87</v>
+      </c>
+      <c r="F22" s="41" t="n">
+        <v>2267.87</v>
+      </c>
+      <c r="G22" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H22" s="51" t="n"/>
-      <c r="I22" s="51" t="n">
-        <v>16.14</v>
+      <c r="H22" s="40" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I22" s="40" t="n">
+        <v>13.71</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L22" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M22" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N22" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P22" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R22" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S22" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T22" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U22" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V22" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W22" s="46" t="n"/>
       <c r="X22" s="46" t="n"/>
       <c r="Y22" s="45">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z22" s="46" t="n"/>
       <c r="AA22" s="46" t="n"/>
       <c r="AB22" s="47" t="n"/>
       <c r="AC22" s="42">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD22" s="48" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B23" s="50" t="inlineStr">
+      <c r="A23" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B23" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C23" s="50" t="inlineStr">
+      <c r="C23" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D23" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="52" t="n">
-        <v>2243.04</v>
-      </c>
-      <c r="F23" s="52" t="n">
-        <v>2243.04</v>
-      </c>
-      <c r="G23" s="50" t="inlineStr">
+      <c r="D23" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="41" t="n">
+        <v>2281.46</v>
+      </c>
+      <c r="F23" s="41" t="n">
+        <v>4562.92</v>
+      </c>
+      <c r="G23" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H23" s="51" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I23" s="51" t="n">
-        <v>13.55</v>
+      <c r="H23" s="40" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="I23" s="40" t="n">
+        <v>27.59</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L23" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M23" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N23" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P23" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R23" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S23" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T23" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U23" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V23" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W23" s="46" t="n"/>
       <c r="X23" s="46" t="n"/>
       <c r="Y23" s="45">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z23" s="46" t="n"/>
       <c r="AA23" s="46" t="n"/>
       <c r="AB23" s="47" t="n"/>
       <c r="AC23" s="42">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD23" s="48" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="49" t="n">
-        <v>45716</v>
+        <v>45734</v>
       </c>
       <c r="B24" s="50" t="inlineStr">
         <is>
@@ -2680,92 +2540,91 @@
         <v>1</v>
       </c>
       <c r="E24" s="52" t="n">
-        <v>2204.63</v>
-      </c>
-      <c r="F24" s="52" t="n">
-        <v>2204.63</v>
+        <v>2293.04</v>
+      </c>
+      <c r="F24" s="52">
+        <f>E17*D17 + sum(H17:I17)</f>
+        <v/>
       </c>
       <c r="G24" s="50" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H24" s="51" t="n">
-        <v>2.18</v>
-      </c>
+      <c r="H24" s="51" t="n"/>
       <c r="I24" s="51" t="n">
-        <v>13.35</v>
+        <v>16.14</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L24" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M24" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N24" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P24" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R24" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S24" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T24" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U24" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V24" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W24" s="46" t="n"/>
       <c r="X24" s="46" t="n"/>
       <c r="Y24" s="45">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z24" s="46" t="n"/>
       <c r="AA24" s="46" t="n"/>
       <c r="AB24" s="47" t="n"/>
       <c r="AC24" s="42">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD24" s="48" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="49" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B25" s="50" t="inlineStr">
         <is>
@@ -2778,13 +2637,13 @@
         </is>
       </c>
       <c r="D25" s="51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="52" t="n">
-        <v>2273</v>
+        <v>2243.04</v>
       </c>
       <c r="F25" s="52" t="n">
-        <v>6819</v>
+        <v>2243.04</v>
       </c>
       <c r="G25" s="50" t="inlineStr">
         <is>
@@ -2792,81 +2651,81 @@
         </is>
       </c>
       <c r="H25" s="51" t="n">
-        <v>6.76</v>
+        <v>2.24</v>
       </c>
       <c r="I25" s="51" t="n">
-        <v>41.24</v>
+        <v>13.55</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L25" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M25" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N25" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P25" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R25" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S25" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T25" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U25" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V25" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W25" s="46" t="n"/>
       <c r="X25" s="46" t="n"/>
       <c r="Y25" s="45">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z25" s="46" t="n"/>
       <c r="AA25" s="46" t="n"/>
       <c r="AB25" s="47" t="n"/>
       <c r="AC25" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD25" s="48" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="49" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B26" s="50" t="inlineStr">
         <is>
@@ -2882,10 +2741,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="52" t="n">
-        <v>2273.12</v>
+        <v>2204.63</v>
       </c>
       <c r="F26" s="52" t="n">
-        <v>2273.12</v>
+        <v>2204.63</v>
       </c>
       <c r="G26" s="50" t="inlineStr">
         <is>
@@ -2893,81 +2752,81 @@
         </is>
       </c>
       <c r="H26" s="51" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I26" s="51" t="n">
-        <v>13.76</v>
+        <v>13.35</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L26" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M26" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N26" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P26" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R26" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S26" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T26" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U26" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V26" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W26" s="46" t="n"/>
       <c r="X26" s="46" t="n"/>
       <c r="Y26" s="45">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z26" s="46" t="n"/>
       <c r="AA26" s="46" t="n"/>
       <c r="AB26" s="47" t="n"/>
       <c r="AC26" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD26" s="48" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B27" s="50" t="inlineStr">
         <is>
@@ -2980,13 +2839,13 @@
         </is>
       </c>
       <c r="D27" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273</v>
       </c>
       <c r="F27" s="52" t="n">
-        <v>4494.22</v>
+        <v>6819</v>
       </c>
       <c r="G27" s="50" t="inlineStr">
         <is>
@@ -2994,81 +2853,81 @@
         </is>
       </c>
       <c r="H27" s="51" t="n">
-        <v>4.45</v>
+        <v>6.76</v>
       </c>
       <c r="I27" s="51" t="n">
-        <v>27.17</v>
+        <v>41.24</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L27" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M27" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N27" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P27" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R27" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S27" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T27" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U27" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V27" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W27" s="46" t="n"/>
       <c r="X27" s="46" t="n"/>
       <c r="Y27" s="45">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z27" s="46" t="n"/>
       <c r="AA27" s="46" t="n"/>
       <c r="AB27" s="47" t="n"/>
       <c r="AC27" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD27" s="48" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B28" s="50" t="inlineStr">
         <is>
@@ -3084,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273.12</v>
       </c>
       <c r="F28" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273.12</v>
       </c>
       <c r="G28" s="50" t="inlineStr">
         <is>
@@ -3095,74 +2954,74 @@
         </is>
       </c>
       <c r="H28" s="51" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="I28" s="51" t="n">
-        <v>13.58</v>
+        <v>13.76</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L28" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M28" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N28" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P28" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R28" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S28" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T28" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U28" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V28" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W28" s="46" t="n"/>
       <c r="X28" s="46" t="n"/>
       <c r="Y28" s="45">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z28" s="46" t="n"/>
       <c r="AA28" s="46" t="n"/>
       <c r="AB28" s="47" t="n"/>
       <c r="AC28" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD28" s="48" t="n"/>
@@ -3206,99 +3065,296 @@
         <v/>
       </c>
       <c r="K29" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="L29" s="42">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="M29" s="42">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <v/>
+      </c>
+      <c r="N29" s="44">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O29" s="43">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="P29" s="42">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="42">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <v/>
+      </c>
+      <c r="R29" s="42">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="S29" s="45">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="T29" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <v/>
+      </c>
+      <c r="U29" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <v/>
+      </c>
+      <c r="V29" s="46">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W29" s="46" t="n">
+        <v>2392.5</v>
+      </c>
+      <c r="X29" s="88" t="n">
+        <v>46065</v>
+      </c>
+      <c r="Y29" s="45" t="n">
+        <v>0.031674</v>
+      </c>
+      <c r="Z29" s="46" t="n">
+        <v>143.35</v>
+      </c>
+      <c r="AA29" s="46" t="n">
+        <v>2390.46</v>
+      </c>
+      <c r="AB29" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="42">
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
+      <c r="AD29" s="48" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="49" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B30" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C30" s="50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D30" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="F30" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="G30" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H30" s="51" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I30" s="51" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="J30" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K30" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L30" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M30" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N30" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O30" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P30" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R30" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S30" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T30" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U30" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V30" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W30" s="46" t="n">
+        <v>2392.5</v>
+      </c>
+      <c r="X30" s="88" t="n">
+        <v>46065</v>
+      </c>
+      <c r="Y30" s="45" t="n">
+        <v>0.063347</v>
+      </c>
+      <c r="Z30" s="46" t="n">
+        <v>143.35</v>
+      </c>
+      <c r="AA30" s="46" t="n">
+        <v>2390.46</v>
+      </c>
+      <c r="AB30" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD30" s="48" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="49" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B31" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C31" s="50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D31" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="F31" s="52" t="n">
+        <v>4494.22</v>
+      </c>
+      <c r="G31" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H31" s="51" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I31" s="51" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="J31" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K31" s="43">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
-      <c r="L29" s="42">
+      <c r="L31" s="42">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
-      <c r="M29" s="42">
+      <c r="M31" s="42">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
-      <c r="N29" s="44">
+      <c r="N31" s="44">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
-      <c r="O29" s="43">
+      <c r="O31" s="43">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
-      <c r="P29" s="42">
+      <c r="P31" s="42">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q31" s="42">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
-      <c r="R29" s="42">
+      <c r="R31" s="42">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
-      <c r="S29" s="45">
+      <c r="S31" s="45">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
-      <c r="T29" s="46">
+      <c r="T31" s="46">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
-      <c r="U29" s="46">
+      <c r="U31" s="46">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
-      <c r="V29" s="46">
+      <c r="V31" s="46">
         <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
-      <c r="W29" s="46" t="n"/>
-      <c r="X29" s="46" t="n"/>
-      <c r="Y29" s="45">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
-        <v/>
-      </c>
-      <c r="Z29" s="46" t="n"/>
-      <c r="AA29" s="46" t="n"/>
-      <c r="AB29" s="47" t="n"/>
-      <c r="AC29" s="42">
+      <c r="W31" s="46" t="n">
+        <v>2392.5</v>
+      </c>
+      <c r="X31" s="88" t="n">
+        <v>46065</v>
+      </c>
+      <c r="Y31" s="45" t="n">
+        <v>0.031674</v>
+      </c>
+      <c r="Z31" s="46" t="n">
+        <v>143.35</v>
+      </c>
+      <c r="AA31" s="46" t="n">
+        <v>2390.46</v>
+      </c>
+      <c r="AB31" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="42">
         <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
-      <c r="AD29" s="48" t="n"/>
-    </row>
-    <row r="30">
-      <c r="E30" s="53" t="n"/>
-      <c r="F30" s="53" t="n"/>
-      <c r="G30" s="54" t="n"/>
-      <c r="J30" s="53" t="n"/>
-      <c r="K30" s="53" t="n"/>
-      <c r="L30" s="53" t="n"/>
-      <c r="M30" s="56" t="n"/>
-      <c r="W30" s="53" t="n"/>
-      <c r="X30" s="53" t="n"/>
-      <c r="Y30" s="53" t="n"/>
-      <c r="Z30" s="53" t="n"/>
-      <c r="AA30" s="53" t="n"/>
-      <c r="AB30" s="53" t="n"/>
-      <c r="AC30" s="53" t="n"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="53" t="n"/>
-      <c r="F31" s="53" t="n"/>
-      <c r="G31" s="54" t="n"/>
-      <c r="J31" s="53" t="n"/>
-      <c r="K31" s="53" t="n"/>
-      <c r="L31" s="53" t="n"/>
-      <c r="M31" s="56" t="n"/>
-      <c r="W31" s="53" t="n"/>
-      <c r="X31" s="53" t="n"/>
-      <c r="Y31" s="53" t="n"/>
-      <c r="Z31" s="53" t="n"/>
-      <c r="AA31" s="53" t="n"/>
-      <c r="AB31" s="53" t="n"/>
-      <c r="AC31" s="53" t="n"/>
+      <c r="AD31" s="48" t="n"/>
     </row>
     <row r="32">
       <c r="E32" s="53" t="n"/>
@@ -18251,6 +18307,7 @@
       <c r="J966" s="53" t="n"/>
       <c r="K966" s="53" t="n"/>
       <c r="L966" s="53" t="n"/>
+      <c r="M966" s="56" t="n"/>
       <c r="W966" s="53" t="n"/>
       <c r="X966" s="53" t="n"/>
       <c r="Y966" s="53" t="n"/>
@@ -18266,6 +18323,7 @@
       <c r="J967" s="53" t="n"/>
       <c r="K967" s="53" t="n"/>
       <c r="L967" s="53" t="n"/>
+      <c r="M967" s="56" t="n"/>
       <c r="W967" s="53" t="n"/>
       <c r="X967" s="53" t="n"/>
       <c r="Y967" s="53" t="n"/>
@@ -18498,6 +18556,36 @@
       <c r="AA982" s="53" t="n"/>
       <c r="AB982" s="53" t="n"/>
       <c r="AC982" s="53" t="n"/>
+    </row>
+    <row r="983">
+      <c r="E983" s="53" t="n"/>
+      <c r="F983" s="53" t="n"/>
+      <c r="G983" s="54" t="n"/>
+      <c r="J983" s="53" t="n"/>
+      <c r="K983" s="53" t="n"/>
+      <c r="L983" s="53" t="n"/>
+      <c r="W983" s="53" t="n"/>
+      <c r="X983" s="53" t="n"/>
+      <c r="Y983" s="53" t="n"/>
+      <c r="Z983" s="53" t="n"/>
+      <c r="AA983" s="53" t="n"/>
+      <c r="AB983" s="53" t="n"/>
+      <c r="AC983" s="53" t="n"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="53" t="n"/>
+      <c r="F984" s="53" t="n"/>
+      <c r="G984" s="54" t="n"/>
+      <c r="J984" s="53" t="n"/>
+      <c r="K984" s="53" t="n"/>
+      <c r="L984" s="53" t="n"/>
+      <c r="W984" s="53" t="n"/>
+      <c r="X984" s="53" t="n"/>
+      <c r="Y984" s="53" t="n"/>
+      <c r="Z984" s="53" t="n"/>
+      <c r="AA984" s="53" t="n"/>
+      <c r="AB984" s="53" t="n"/>
+      <c r="AC984" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>

--- a/dumps/Stocks/Asian Paints Ltd.xlsx
+++ b/dumps/Stocks/Asian Paints Ltd.xlsx
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -437,6 +437,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +748,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP981"/>
+  <dimension ref="A1:AP983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,11 +1098,11 @@
     </row>
     <row r="5">
       <c r="A5" s="86" t="n">
-        <v>45987</v>
+        <v>46065</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1108,30 +1111,27 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2873.86</v>
+        <v>2385.4</v>
       </c>
       <c r="F5" t="n">
-        <v>57477.2</v>
+        <v>4770.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608652444</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I5" t="n">
-        <v>288.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="86" t="n">
-        <v>45982</v>
+        <v>46065</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1140,294 +1140,177 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2385.4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4770.8</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="86" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E7" s="0" t="n">
+        <v>2873.86</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>57477.2</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608652444</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>288.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="86" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>2845.385</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>56907.7</v>
       </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>CN#252608495287</t>
         </is>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>286</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="86" t="n">
+    <row r="9">
+      <c r="A9" s="86" t="n">
         <v>45959</v>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>2535.1</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>5095.56</v>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>25.36</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J9" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="86" t="n">
+      <c r="W9" s="0" t="n">
+        <v>2385.4</v>
+      </c>
+      <c r="X9" s="86" t="n">
+        <v>46065</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>-0.057648</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>-295.21</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>4774.99</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="86" t="n">
         <v>45957</v>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>2520.7</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>5066.6</v>
       </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="G10" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>25.2</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J10" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="38" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B9" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C9" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D9" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="41" t="n">
-        <v>2553.07</v>
-      </c>
-      <c r="F9" s="41">
-        <f>(D5*E5)+I5</f>
-        <v/>
-      </c>
-      <c r="G9" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H9" s="40" t="n"/>
-      <c r="I9" s="40" t="n"/>
-      <c r="J9" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K9" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L9" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M9" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N9" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O9" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P9" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R9" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S9" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T9" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U9" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V9" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W9" s="46" t="n"/>
-      <c r="X9" s="46" t="n"/>
-      <c r="Y9" s="45">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z9" s="46" t="n"/>
-      <c r="AA9" s="46" t="n"/>
-      <c r="AB9" s="47" t="n"/>
-      <c r="AC9" s="42">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD9" s="48" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="n">
-        <v>45957</v>
-      </c>
-      <c r="B10" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C10" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D10" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="41" t="n">
-        <v>2538.57</v>
-      </c>
-      <c r="F10" s="41">
-        <f>(D6*E6)+I6</f>
-        <v/>
-      </c>
-      <c r="G10" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H10" s="40" t="n"/>
-      <c r="I10" s="40" t="n"/>
-      <c r="J10" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K10" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L10" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M10" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N10" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P10" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R10" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S10" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T10" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U10" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V10" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W10" s="46" t="n"/>
-      <c r="X10" s="46" t="n"/>
-      <c r="Y10" s="45">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z10" s="46" t="n"/>
-      <c r="AA10" s="46" t="n"/>
-      <c r="AB10" s="47" t="n"/>
-      <c r="AC10" s="42">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD10" s="48" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="38" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B11" s="39" t="inlineStr">
         <is>
@@ -1443,10 +1326,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="41" t="n">
-        <v>2514.91</v>
+        <v>2553.07</v>
       </c>
       <c r="F11" s="41">
-        <f>(D7*E7)+I7</f>
+        <f>(D5*E5)+I5</f>
         <v/>
       </c>
       <c r="G11" s="39" t="inlineStr">
@@ -1461,71 +1344,80 @@
         <v/>
       </c>
       <c r="K11" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L11" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M11" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N11" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O11" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P11" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q11" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R11" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S11" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T11" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U11" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V11" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W11" s="46" t="n"/>
-      <c r="X11" s="46" t="n"/>
-      <c r="Y11" s="45">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z11" s="46" t="n"/>
-      <c r="AA11" s="46" t="n"/>
-      <c r="AB11" s="47" t="n"/>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
+        <v/>
+      </c>
+      <c r="W11" s="46" t="n">
+        <v>2385.4</v>
+      </c>
+      <c r="X11" s="88" t="n">
+        <v>46065</v>
+      </c>
+      <c r="Y11" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="46" t="n">
+        <v>-330.65</v>
+      </c>
+      <c r="AA11" s="46" t="n">
+        <v>4775.49</v>
+      </c>
+      <c r="AB11" s="47" t="n">
+        <v>2</v>
+      </c>
       <c r="AC11" s="42">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD11" s="48" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="38" t="n">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="B12" s="39" t="inlineStr">
         <is>
@@ -1538,13 +1430,13 @@
         </is>
       </c>
       <c r="D12" s="40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="41" t="n">
-        <v>2539.28</v>
+        <v>2538.57</v>
       </c>
       <c r="F12" s="41">
-        <f>(D8*E8)+I8</f>
+        <f>(D6*E6)+I6</f>
         <v/>
       </c>
       <c r="G12" s="39" t="inlineStr">
@@ -1559,71 +1451,71 @@
         <v/>
       </c>
       <c r="K12" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L12" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M12" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N12" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O12" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P12" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q12" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R12" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S12" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T12" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U12" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V12" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W12" s="46" t="n"/>
       <c r="X12" s="46" t="n"/>
       <c r="Y12" s="45">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z12" s="46" t="n"/>
       <c r="AA12" s="46" t="n"/>
       <c r="AB12" s="47" t="n"/>
       <c r="AC12" s="42">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD12" s="48" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="38" t="n">
-        <v>45924</v>
+        <v>45954</v>
       </c>
       <c r="B13" s="39" t="inlineStr">
         <is>
@@ -1636,13 +1528,13 @@
         </is>
       </c>
       <c r="D13" s="40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="41" t="n">
-        <v>2487.71</v>
+        <v>2514.91</v>
       </c>
       <c r="F13" s="41">
-        <f>(D9*E9)+I9</f>
+        <f>(D7*E7)+I7</f>
         <v/>
       </c>
       <c r="G13" s="39" t="inlineStr">
@@ -1657,71 +1549,71 @@
         <v/>
       </c>
       <c r="K13" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L13" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M13" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N13" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O13" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P13" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q13" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R13" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S13" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T13" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U13" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V13" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W13" s="46" t="n"/>
       <c r="X13" s="46" t="n"/>
       <c r="Y13" s="45">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z13" s="46" t="n"/>
       <c r="AA13" s="46" t="n"/>
       <c r="AB13" s="47" t="n"/>
       <c r="AC13" s="42">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD13" s="48" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="38" t="n">
-        <v>45855</v>
+        <v>45950</v>
       </c>
       <c r="B14" s="39" t="inlineStr">
         <is>
@@ -1734,95 +1626,92 @@
         </is>
       </c>
       <c r="D14" s="40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="41" t="n">
-        <v>2420.93</v>
-      </c>
-      <c r="F14" s="41" t="n">
-        <v>4841.86</v>
+        <v>2539.28</v>
+      </c>
+      <c r="F14" s="41">
+        <f>(D8*E8)+I8</f>
+        <v/>
       </c>
       <c r="G14" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H14" s="40" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="I14" s="40" t="n">
-        <v>29.25</v>
-      </c>
+      <c r="H14" s="40" t="n"/>
+      <c r="I14" s="40" t="n"/>
       <c r="J14" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K14" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L14" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M14" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N14" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O14" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P14" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q14" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R14" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S14" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T14" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U14" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V14" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W14" s="46" t="n"/>
       <c r="X14" s="46" t="n"/>
       <c r="Y14" s="45">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z14" s="46" t="n"/>
       <c r="AA14" s="46" t="n"/>
       <c r="AB14" s="47" t="n"/>
       <c r="AC14" s="42">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD14" s="48" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="38" t="n">
-        <v>45855</v>
+        <v>45924</v>
       </c>
       <c r="B15" s="39" t="inlineStr">
         <is>
@@ -1835,95 +1724,92 @@
         </is>
       </c>
       <c r="D15" s="40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="41" t="n">
-        <v>2420.93</v>
-      </c>
-      <c r="F15" s="41" t="n">
-        <v>2420.93</v>
+        <v>2487.71</v>
+      </c>
+      <c r="F15" s="41">
+        <f>(D9*E9)+I9</f>
+        <v/>
       </c>
       <c r="G15" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H15" s="40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I15" s="40" t="n">
-        <v>14.63</v>
-      </c>
+      <c r="H15" s="40" t="n"/>
+      <c r="I15" s="40" t="n"/>
       <c r="J15" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K15" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L15" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M15" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N15" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O15" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P15" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q15" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R15" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S15" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T15" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U15" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V15" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W15" s="46" t="n"/>
       <c r="X15" s="46" t="n"/>
       <c r="Y15" s="45">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z15" s="46" t="n"/>
       <c r="AA15" s="46" t="n"/>
       <c r="AB15" s="47" t="n"/>
       <c r="AC15" s="42">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD15" s="48" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B16" s="39" t="inlineStr">
         <is>
@@ -1936,13 +1822,13 @@
         </is>
       </c>
       <c r="D16" s="40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" s="41" t="n">
-        <v>2269.87</v>
+        <v>2420.93</v>
       </c>
       <c r="F16" s="41" t="n">
-        <v>13619.21</v>
+        <v>4841.86</v>
       </c>
       <c r="G16" s="39" t="inlineStr">
         <is>
@@ -1950,85 +1836,85 @@
         </is>
       </c>
       <c r="H16" s="40" t="n">
-        <v>13.5</v>
+        <v>4.81</v>
       </c>
       <c r="I16" s="40" t="n">
-        <v>82.31</v>
+        <v>29.25</v>
       </c>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L16" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M16" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N16" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P16" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R16" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S16" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T16" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U16" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V16" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W16" s="46" t="n"/>
       <c r="X16" s="46" t="n"/>
       <c r="Y16" s="45">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z16" s="46" t="n"/>
       <c r="AA16" s="46" t="n"/>
       <c r="AB16" s="47" t="n"/>
       <c r="AC16" s="42">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD16" s="48" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="38" t="n">
-        <v>45818</v>
+        <v>45855</v>
       </c>
       <c r="B17" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
@@ -2037,95 +1923,95 @@
         </is>
       </c>
       <c r="D17" s="40" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E17" s="41" t="n">
-        <v>20.55</v>
+        <v>2420.93</v>
       </c>
       <c r="F17" s="41" t="n">
-        <v>328.8</v>
+        <v>2420.93</v>
       </c>
       <c r="G17" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H17" s="40" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I17" s="40" t="n">
-        <v>0</v>
+        <v>14.63</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L17" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M17" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N17" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P17" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R17" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S17" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T17" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U17" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V17" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W17" s="46" t="n"/>
       <c r="X17" s="46" t="n"/>
       <c r="Y17" s="45">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z17" s="46" t="n"/>
       <c r="AA17" s="46" t="n"/>
       <c r="AB17" s="47" t="n"/>
       <c r="AC17" s="42">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD17" s="48" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B18" s="39" t="inlineStr">
         <is>
@@ -2138,13 +2024,13 @@
         </is>
       </c>
       <c r="D18" s="40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="41" t="n">
-        <v>2267.87</v>
+        <v>2269.87</v>
       </c>
       <c r="F18" s="41" t="n">
-        <v>2267.87</v>
+        <v>13619.21</v>
       </c>
       <c r="G18" s="39" t="inlineStr">
         <is>
@@ -2152,85 +2038,85 @@
         </is>
       </c>
       <c r="H18" s="40" t="n">
-        <v>2.26</v>
+        <v>13.5</v>
       </c>
       <c r="I18" s="40" t="n">
-        <v>13.71</v>
+        <v>82.31</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L18" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M18" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N18" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P18" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R18" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S18" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T18" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U18" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V18" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W18" s="46" t="n"/>
       <c r="X18" s="46" t="n"/>
       <c r="Y18" s="45">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z18" s="46" t="n"/>
       <c r="AA18" s="46" t="n"/>
       <c r="AB18" s="47" t="n"/>
       <c r="AC18" s="42">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD18" s="48" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="38" t="n">
-        <v>45812</v>
+        <v>45818</v>
       </c>
       <c r="B19" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
@@ -2239,95 +2125,95 @@
         </is>
       </c>
       <c r="D19" s="40" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E19" s="41" t="n">
-        <v>2267.87</v>
+        <v>20.55</v>
       </c>
       <c r="F19" s="41" t="n">
-        <v>2267.87</v>
+        <v>328.8</v>
       </c>
       <c r="G19" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
         </is>
       </c>
       <c r="H19" s="40" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="I19" s="40" t="n">
-        <v>13.71</v>
+        <v>0</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L19" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M19" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N19" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P19" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R19" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S19" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T19" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U19" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V19" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W19" s="46" t="n"/>
       <c r="X19" s="46" t="n"/>
       <c r="Y19" s="45">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z19" s="46" t="n"/>
       <c r="AA19" s="46" t="n"/>
       <c r="AB19" s="47" t="n"/>
       <c r="AC19" s="42">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD19" s="48" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B20" s="39" t="inlineStr">
         <is>
@@ -2340,13 +2226,13 @@
         </is>
       </c>
       <c r="D20" s="40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="41" t="n">
-        <v>2281.46</v>
+        <v>2267.87</v>
       </c>
       <c r="F20" s="41" t="n">
-        <v>4562.92</v>
+        <v>2267.87</v>
       </c>
       <c r="G20" s="39" t="inlineStr">
         <is>
@@ -2354,282 +2240,283 @@
         </is>
       </c>
       <c r="H20" s="40" t="n">
-        <v>4.53</v>
+        <v>2.26</v>
       </c>
       <c r="I20" s="40" t="n">
-        <v>27.59</v>
+        <v>13.71</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L20" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M20" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N20" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P20" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R20" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S20" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T20" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U20" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V20" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W20" s="46" t="n"/>
       <c r="X20" s="46" t="n"/>
       <c r="Y20" s="45">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z20" s="46" t="n"/>
       <c r="AA20" s="46" t="n"/>
       <c r="AB20" s="47" t="n"/>
       <c r="AC20" s="42">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD20" s="48" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B21" s="50" t="inlineStr">
+      <c r="A21" s="38" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B21" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C21" s="50" t="inlineStr">
+      <c r="C21" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D21" s="51" t="n">
+      <c r="D21" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="52" t="n">
-        <v>2293.04</v>
-      </c>
-      <c r="F21" s="52">
-        <f>E17*D17 + sum(H17:I17)</f>
-        <v/>
-      </c>
-      <c r="G21" s="50" t="inlineStr">
+      <c r="E21" s="41" t="n">
+        <v>2267.87</v>
+      </c>
+      <c r="F21" s="41" t="n">
+        <v>2267.87</v>
+      </c>
+      <c r="G21" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H21" s="51" t="n"/>
-      <c r="I21" s="51" t="n">
-        <v>16.14</v>
+      <c r="H21" s="40" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I21" s="40" t="n">
+        <v>13.71</v>
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L21" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M21" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N21" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P21" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R21" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S21" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T21" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U21" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V21" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W21" s="46" t="n"/>
       <c r="X21" s="46" t="n"/>
       <c r="Y21" s="45">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z21" s="46" t="n"/>
       <c r="AA21" s="46" t="n"/>
       <c r="AB21" s="47" t="n"/>
       <c r="AC21" s="42">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD21" s="48" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B22" s="50" t="inlineStr">
+      <c r="A22" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B22" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C22" s="50" t="inlineStr">
+      <c r="C22" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D22" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="52" t="n">
-        <v>2243.04</v>
-      </c>
-      <c r="F22" s="52" t="n">
-        <v>2243.04</v>
-      </c>
-      <c r="G22" s="50" t="inlineStr">
+      <c r="D22" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="41" t="n">
+        <v>2281.46</v>
+      </c>
+      <c r="F22" s="41" t="n">
+        <v>4562.92</v>
+      </c>
+      <c r="G22" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H22" s="51" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I22" s="51" t="n">
-        <v>13.55</v>
+      <c r="H22" s="40" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="I22" s="40" t="n">
+        <v>27.59</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L22" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M22" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N22" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P22" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R22" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S22" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T22" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U22" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V22" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W22" s="46" t="n"/>
       <c r="X22" s="46" t="n"/>
       <c r="Y22" s="45">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z22" s="46" t="n"/>
       <c r="AA22" s="46" t="n"/>
       <c r="AB22" s="47" t="n"/>
       <c r="AC22" s="42">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD22" s="48" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="49" t="n">
-        <v>45716</v>
+        <v>45734</v>
       </c>
       <c r="B23" s="50" t="inlineStr">
         <is>
@@ -2645,92 +2532,91 @@
         <v>1</v>
       </c>
       <c r="E23" s="52" t="n">
-        <v>2204.63</v>
-      </c>
-      <c r="F23" s="52" t="n">
-        <v>2204.63</v>
+        <v>2293.04</v>
+      </c>
+      <c r="F23" s="52">
+        <f>E17*D17 + sum(H17:I17)</f>
+        <v/>
       </c>
       <c r="G23" s="50" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H23" s="51" t="n">
-        <v>2.18</v>
-      </c>
+      <c r="H23" s="51" t="n"/>
       <c r="I23" s="51" t="n">
-        <v>13.35</v>
+        <v>16.14</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L23" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M23" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N23" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P23" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R23" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S23" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T23" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U23" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V23" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W23" s="46" t="n"/>
       <c r="X23" s="46" t="n"/>
       <c r="Y23" s="45">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z23" s="46" t="n"/>
       <c r="AA23" s="46" t="n"/>
       <c r="AB23" s="47" t="n"/>
       <c r="AC23" s="42">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD23" s="48" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="49" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B24" s="50" t="inlineStr">
         <is>
@@ -2743,13 +2629,13 @@
         </is>
       </c>
       <c r="D24" s="51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="52" t="n">
-        <v>2273</v>
+        <v>2243.04</v>
       </c>
       <c r="F24" s="52" t="n">
-        <v>6819</v>
+        <v>2243.04</v>
       </c>
       <c r="G24" s="50" t="inlineStr">
         <is>
@@ -2757,81 +2643,81 @@
         </is>
       </c>
       <c r="H24" s="51" t="n">
-        <v>6.76</v>
+        <v>2.24</v>
       </c>
       <c r="I24" s="51" t="n">
-        <v>41.24</v>
+        <v>13.55</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L24" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M24" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N24" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P24" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R24" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S24" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T24" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U24" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V24" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W24" s="46" t="n"/>
       <c r="X24" s="46" t="n"/>
       <c r="Y24" s="45">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z24" s="46" t="n"/>
       <c r="AA24" s="46" t="n"/>
       <c r="AB24" s="47" t="n"/>
       <c r="AC24" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD24" s="48" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="49" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B25" s="50" t="inlineStr">
         <is>
@@ -2847,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="52" t="n">
-        <v>2273.12</v>
+        <v>2204.63</v>
       </c>
       <c r="F25" s="52" t="n">
-        <v>2273.12</v>
+        <v>2204.63</v>
       </c>
       <c r="G25" s="50" t="inlineStr">
         <is>
@@ -2858,81 +2744,81 @@
         </is>
       </c>
       <c r="H25" s="51" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I25" s="51" t="n">
-        <v>13.76</v>
+        <v>13.35</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L25" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M25" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N25" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P25" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R25" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S25" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T25" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U25" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V25" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W25" s="46" t="n"/>
       <c r="X25" s="46" t="n"/>
       <c r="Y25" s="45">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z25" s="46" t="n"/>
       <c r="AA25" s="46" t="n"/>
       <c r="AB25" s="47" t="n"/>
       <c r="AC25" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD25" s="48" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B26" s="50" t="inlineStr">
         <is>
@@ -2945,13 +2831,13 @@
         </is>
       </c>
       <c r="D26" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273</v>
       </c>
       <c r="F26" s="52" t="n">
-        <v>4494.22</v>
+        <v>6819</v>
       </c>
       <c r="G26" s="50" t="inlineStr">
         <is>
@@ -2959,81 +2845,81 @@
         </is>
       </c>
       <c r="H26" s="51" t="n">
-        <v>4.45</v>
+        <v>6.76</v>
       </c>
       <c r="I26" s="51" t="n">
-        <v>27.17</v>
+        <v>41.24</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L26" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M26" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N26" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P26" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R26" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S26" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T26" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U26" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V26" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W26" s="46" t="n"/>
       <c r="X26" s="46" t="n"/>
       <c r="Y26" s="45">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z26" s="46" t="n"/>
       <c r="AA26" s="46" t="n"/>
       <c r="AB26" s="47" t="n"/>
       <c r="AC26" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD26" s="48" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B27" s="50" t="inlineStr">
         <is>
@@ -3049,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273.12</v>
       </c>
       <c r="F27" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273.12</v>
       </c>
       <c r="G27" s="50" t="inlineStr">
         <is>
@@ -3060,74 +2946,74 @@
         </is>
       </c>
       <c r="H27" s="51" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="I27" s="51" t="n">
-        <v>13.58</v>
+        <v>13.76</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L27" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M27" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N27" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P27" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R27" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S27" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T27" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U27" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V27" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W27" s="46" t="n"/>
       <c r="X27" s="46" t="n"/>
       <c r="Y27" s="45">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z27" s="46" t="n"/>
       <c r="AA27" s="46" t="n"/>
       <c r="AB27" s="47" t="n"/>
       <c r="AC27" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD27" s="48" t="n"/>
@@ -3171,99 +3057,269 @@
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L28" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M28" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N28" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P28" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R28" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S28" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T28" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U28" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V28" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W28" s="46" t="n"/>
       <c r="X28" s="46" t="n"/>
       <c r="Y28" s="45">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z28" s="46" t="n"/>
       <c r="AA28" s="46" t="n"/>
       <c r="AB28" s="47" t="n"/>
       <c r="AC28" s="42">
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
+      <c r="AD28" s="48" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="49" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B29" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C29" s="50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D29" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="F29" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="G29" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H29" s="51" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I29" s="51" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="J29" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K29" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L29" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M29" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N29" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O29" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P29" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R29" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S29" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T29" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U29" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V29" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W29" s="46" t="n"/>
+      <c r="X29" s="46" t="n"/>
+      <c r="Y29" s="45">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z29" s="46" t="n"/>
+      <c r="AA29" s="46" t="n"/>
+      <c r="AB29" s="47" t="n"/>
+      <c r="AC29" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD29" s="48" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="49" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B30" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C30" s="50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D30" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="F30" s="52" t="n">
+        <v>4494.22</v>
+      </c>
+      <c r="G30" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H30" s="51" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I30" s="51" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="J30" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K30" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="L30" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M30" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N30" s="44">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O30" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="P30" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R30" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S30" s="45">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="T30" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="U30" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V30" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W30" s="46" t="n"/>
+      <c r="X30" s="46" t="n"/>
+      <c r="Y30" s="45">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z30" s="46" t="n"/>
+      <c r="AA30" s="46" t="n"/>
+      <c r="AB30" s="47" t="n"/>
+      <c r="AC30" s="42">
         <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
-      <c r="AD28" s="48" t="n"/>
-    </row>
-    <row r="29">
-      <c r="E29" s="53" t="n"/>
-      <c r="F29" s="53" t="n"/>
-      <c r="G29" s="54" t="n"/>
-      <c r="J29" s="53" t="n"/>
-      <c r="K29" s="53" t="n"/>
-      <c r="L29" s="53" t="n"/>
-      <c r="M29" s="56" t="n"/>
-      <c r="W29" s="53" t="n"/>
-      <c r="X29" s="53" t="n"/>
-      <c r="Y29" s="53" t="n"/>
-      <c r="Z29" s="53" t="n"/>
-      <c r="AA29" s="53" t="n"/>
-      <c r="AB29" s="53" t="n"/>
-      <c r="AC29" s="53" t="n"/>
-    </row>
-    <row r="30">
-      <c r="E30" s="53" t="n"/>
-      <c r="F30" s="53" t="n"/>
-      <c r="G30" s="54" t="n"/>
-      <c r="J30" s="53" t="n"/>
-      <c r="K30" s="53" t="n"/>
-      <c r="L30" s="53" t="n"/>
-      <c r="M30" s="56" t="n"/>
-      <c r="W30" s="53" t="n"/>
-      <c r="X30" s="53" t="n"/>
-      <c r="Y30" s="53" t="n"/>
-      <c r="Z30" s="53" t="n"/>
-      <c r="AA30" s="53" t="n"/>
-      <c r="AB30" s="53" t="n"/>
-      <c r="AC30" s="53" t="n"/>
+      <c r="AD30" s="48" t="n"/>
     </row>
     <row r="31">
       <c r="E31" s="53" t="n"/>
@@ -18216,6 +18272,7 @@
       <c r="J965" s="53" t="n"/>
       <c r="K965" s="53" t="n"/>
       <c r="L965" s="53" t="n"/>
+      <c r="M965" s="56" t="n"/>
       <c r="W965" s="53" t="n"/>
       <c r="X965" s="53" t="n"/>
       <c r="Y965" s="53" t="n"/>
@@ -18231,6 +18288,7 @@
       <c r="J966" s="53" t="n"/>
       <c r="K966" s="53" t="n"/>
       <c r="L966" s="53" t="n"/>
+      <c r="M966" s="56" t="n"/>
       <c r="W966" s="53" t="n"/>
       <c r="X966" s="53" t="n"/>
       <c r="Y966" s="53" t="n"/>
@@ -18463,6 +18521,36 @@
       <c r="AA981" s="53" t="n"/>
       <c r="AB981" s="53" t="n"/>
       <c r="AC981" s="53" t="n"/>
+    </row>
+    <row r="982">
+      <c r="E982" s="53" t="n"/>
+      <c r="F982" s="53" t="n"/>
+      <c r="G982" s="54" t="n"/>
+      <c r="J982" s="53" t="n"/>
+      <c r="K982" s="53" t="n"/>
+      <c r="L982" s="53" t="n"/>
+      <c r="W982" s="53" t="n"/>
+      <c r="X982" s="53" t="n"/>
+      <c r="Y982" s="53" t="n"/>
+      <c r="Z982" s="53" t="n"/>
+      <c r="AA982" s="53" t="n"/>
+      <c r="AB982" s="53" t="n"/>
+      <c r="AC982" s="53" t="n"/>
+    </row>
+    <row r="983">
+      <c r="E983" s="53" t="n"/>
+      <c r="F983" s="53" t="n"/>
+      <c r="G983" s="54" t="n"/>
+      <c r="J983" s="53" t="n"/>
+      <c r="K983" s="53" t="n"/>
+      <c r="L983" s="53" t="n"/>
+      <c r="W983" s="53" t="n"/>
+      <c r="X983" s="53" t="n"/>
+      <c r="Y983" s="53" t="n"/>
+      <c r="Z983" s="53" t="n"/>
+      <c r="AA983" s="53" t="n"/>
+      <c r="AB983" s="53" t="n"/>
+      <c r="AC983" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>

--- a/dumps/Stocks/Asian Paints Ltd.xlsx
+++ b/dumps/Stocks/Asian Paints Ltd.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP983"/>
+  <dimension ref="A1:AP984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="5">
       <c r="A5" s="86" t="n">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1107,22 +1107,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>2385.4</v>
+        <v>2400.4</v>
       </c>
       <c r="F5" t="n">
-        <v>4770.8</v>
+        <v>12086.69</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611972212</t>
         </is>
+      </c>
+      <c r="H5" t="n">
+        <v>12.0751</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72.6159</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1156,11 +1166,11 @@
     </row>
     <row r="7">
       <c r="A7" s="86" t="n">
-        <v>45987</v>
+        <v>46065</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1169,26 +1179,23 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2873.86</v>
+        <v>2385.4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>57477.2</v>
+        <v>4770.8</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252608652444</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>288.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="86" t="n">
-        <v>45982</v>
+        <v>45987</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1204,77 +1211,55 @@
         <v>20</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>2873.86</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>57477.2</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608652444</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>288.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="86" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>2845.385</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>56907.7</v>
       </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>CN#252608495287</t>
         </is>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>286</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="86" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2535.1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>5095.56</v>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>CN#252607497001</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>25.36</v>
-      </c>
-      <c r="J9" s="0">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>2385.4</v>
-      </c>
-      <c r="X9" s="86" t="n">
-        <v>46065</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>-0.057648</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>-295.21</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>4774.99</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="86" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1290,134 +1275,81 @@
         <v>2</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>2535.1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>5095.56</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="J10" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>2385.4</v>
+      </c>
+      <c r="X10" s="86" t="n">
+        <v>46065</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>-0.057648</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>-295.21</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>4774.99</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="86" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>2520.7</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>5066.6</v>
       </c>
-      <c r="G10" s="0" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>25.2</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J11" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="38" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B11" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C11" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D11" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="41" t="n">
-        <v>2553.07</v>
-      </c>
-      <c r="F11" s="41">
-        <f>(D5*E5)+I5</f>
-        <v/>
-      </c>
-      <c r="G11" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H11" s="40" t="n"/>
-      <c r="I11" s="40" t="n"/>
-      <c r="J11" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K11" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L11" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M11" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N11" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O11" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P11" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R11" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S11" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T11" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U11" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V11" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W11" s="46" t="n">
-        <v>2385.4</v>
-      </c>
-      <c r="X11" s="88" t="n">
-        <v>46065</v>
-      </c>
-      <c r="Y11" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="46" t="n">
-        <v>-330.65</v>
-      </c>
-      <c r="AA11" s="46" t="n">
-        <v>4775.49</v>
-      </c>
-      <c r="AB11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="42">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD11" s="48" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="38" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B12" s="39" t="inlineStr">
         <is>
@@ -1433,10 +1365,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="41" t="n">
-        <v>2538.57</v>
+        <v>2553.07</v>
       </c>
       <c r="F12" s="41">
-        <f>(D6*E6)+I6</f>
+        <f>(D5*E5)+I5</f>
         <v/>
       </c>
       <c r="G12" s="39" t="inlineStr">
@@ -1451,71 +1383,80 @@
         <v/>
       </c>
       <c r="K12" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L12" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M12" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N12" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O12" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P12" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q12" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R12" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S12" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T12" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U12" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V12" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W12" s="46" t="n"/>
-      <c r="X12" s="46" t="n"/>
-      <c r="Y12" s="45">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z12" s="46" t="n"/>
-      <c r="AA12" s="46" t="n"/>
-      <c r="AB12" s="47" t="n"/>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
+        <v/>
+      </c>
+      <c r="W12" s="46" t="n">
+        <v>2385.4</v>
+      </c>
+      <c r="X12" s="88" t="n">
+        <v>46065</v>
+      </c>
+      <c r="Y12" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="46" t="n">
+        <v>-330.65</v>
+      </c>
+      <c r="AA12" s="46" t="n">
+        <v>4775.49</v>
+      </c>
+      <c r="AB12" s="47" t="n">
+        <v>2</v>
+      </c>
       <c r="AC12" s="42">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD12" s="48" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="38" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B13" s="39" t="inlineStr">
         <is>
@@ -1531,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="41" t="n">
-        <v>2514.91</v>
+        <v>2538.57</v>
       </c>
       <c r="F13" s="41">
-        <f>(D7*E7)+I7</f>
+        <f>(D6*E6)+I6</f>
         <v/>
       </c>
       <c r="G13" s="39" t="inlineStr">
@@ -1549,71 +1490,71 @@
         <v/>
       </c>
       <c r="K13" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L13" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M13" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N13" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O13" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P13" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q13" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R13" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S13" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T13" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U13" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V13" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W13" s="46" t="n"/>
       <c r="X13" s="46" t="n"/>
       <c r="Y13" s="45">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z13" s="46" t="n"/>
       <c r="AA13" s="46" t="n"/>
       <c r="AB13" s="47" t="n"/>
       <c r="AC13" s="42">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD13" s="48" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="38" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B14" s="39" t="inlineStr">
         <is>
@@ -1626,13 +1567,13 @@
         </is>
       </c>
       <c r="D14" s="40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="41" t="n">
-        <v>2539.28</v>
+        <v>2514.91</v>
       </c>
       <c r="F14" s="41">
-        <f>(D8*E8)+I8</f>
+        <f>(D7*E7)+I7</f>
         <v/>
       </c>
       <c r="G14" s="39" t="inlineStr">
@@ -1647,71 +1588,71 @@
         <v/>
       </c>
       <c r="K14" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L14" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M14" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N14" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O14" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P14" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q14" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R14" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S14" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T14" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U14" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V14" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W14" s="46" t="n"/>
       <c r="X14" s="46" t="n"/>
       <c r="Y14" s="45">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z14" s="46" t="n"/>
       <c r="AA14" s="46" t="n"/>
       <c r="AB14" s="47" t="n"/>
       <c r="AC14" s="42">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD14" s="48" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="38" t="n">
-        <v>45924</v>
+        <v>45950</v>
       </c>
       <c r="B15" s="39" t="inlineStr">
         <is>
@@ -1724,13 +1665,13 @@
         </is>
       </c>
       <c r="D15" s="40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="41" t="n">
-        <v>2487.71</v>
+        <v>2539.28</v>
       </c>
       <c r="F15" s="41">
-        <f>(D9*E9)+I9</f>
+        <f>(D8*E8)+I8</f>
         <v/>
       </c>
       <c r="G15" s="39" t="inlineStr">
@@ -1745,71 +1686,71 @@
         <v/>
       </c>
       <c r="K15" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L15" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M15" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N15" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O15" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P15" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q15" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R15" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S15" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T15" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U15" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V15" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W15" s="46" t="n"/>
       <c r="X15" s="46" t="n"/>
       <c r="Y15" s="45">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z15" s="46" t="n"/>
       <c r="AA15" s="46" t="n"/>
       <c r="AB15" s="47" t="n"/>
       <c r="AC15" s="42">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD15" s="48" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="38" t="n">
-        <v>45855</v>
+        <v>45924</v>
       </c>
       <c r="B16" s="39" t="inlineStr">
         <is>
@@ -1822,88 +1763,85 @@
         </is>
       </c>
       <c r="D16" s="40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" s="41" t="n">
-        <v>2420.93</v>
-      </c>
-      <c r="F16" s="41" t="n">
-        <v>4841.86</v>
+        <v>2487.71</v>
+      </c>
+      <c r="F16" s="41">
+        <f>(D9*E9)+I9</f>
+        <v/>
       </c>
       <c r="G16" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H16" s="40" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="I16" s="40" t="n">
-        <v>29.25</v>
-      </c>
+      <c r="H16" s="40" t="n"/>
+      <c r="I16" s="40" t="n"/>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L16" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M16" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N16" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O16" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P16" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R16" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S16" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T16" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U16" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V16" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W16" s="46" t="n"/>
       <c r="X16" s="46" t="n"/>
       <c r="Y16" s="45">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z16" s="46" t="n"/>
       <c r="AA16" s="46" t="n"/>
       <c r="AB16" s="47" t="n"/>
       <c r="AC16" s="42">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD16" s="48" t="n"/>
@@ -1923,13 +1861,13 @@
         </is>
       </c>
       <c r="D17" s="40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="41" t="n">
         <v>2420.93</v>
       </c>
       <c r="F17" s="41" t="n">
-        <v>2420.93</v>
+        <v>4841.86</v>
       </c>
       <c r="G17" s="39" t="inlineStr">
         <is>
@@ -1937,81 +1875,81 @@
         </is>
       </c>
       <c r="H17" s="40" t="n">
-        <v>2.4</v>
+        <v>4.81</v>
       </c>
       <c r="I17" s="40" t="n">
-        <v>14.63</v>
+        <v>29.25</v>
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L17" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M17" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N17" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P17" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R17" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S17" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T17" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U17" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V17" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W17" s="46" t="n"/>
       <c r="X17" s="46" t="n"/>
       <c r="Y17" s="45">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z17" s="46" t="n"/>
       <c r="AA17" s="46" t="n"/>
       <c r="AB17" s="47" t="n"/>
       <c r="AC17" s="42">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD17" s="48" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B18" s="39" t="inlineStr">
         <is>
@@ -2024,13 +1962,13 @@
         </is>
       </c>
       <c r="D18" s="40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E18" s="41" t="n">
-        <v>2269.87</v>
+        <v>2420.93</v>
       </c>
       <c r="F18" s="41" t="n">
-        <v>13619.21</v>
+        <v>2420.93</v>
       </c>
       <c r="G18" s="39" t="inlineStr">
         <is>
@@ -2038,85 +1976,85 @@
         </is>
       </c>
       <c r="H18" s="40" t="n">
-        <v>13.5</v>
+        <v>2.4</v>
       </c>
       <c r="I18" s="40" t="n">
-        <v>82.31</v>
+        <v>14.63</v>
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L18" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M18" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N18" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P18" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R18" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S18" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T18" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U18" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V18" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W18" s="46" t="n"/>
       <c r="X18" s="46" t="n"/>
       <c r="Y18" s="45">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z18" s="46" t="n"/>
       <c r="AA18" s="46" t="n"/>
       <c r="AB18" s="47" t="n"/>
       <c r="AC18" s="42">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD18" s="48" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="38" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B19" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
@@ -2125,99 +2063,99 @@
         </is>
       </c>
       <c r="D19" s="40" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E19" s="41" t="n">
-        <v>20.55</v>
+        <v>2269.87</v>
       </c>
       <c r="F19" s="41" t="n">
-        <v>328.8</v>
+        <v>13619.21</v>
       </c>
       <c r="G19" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H19" s="40" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="I19" s="40" t="n">
-        <v>0</v>
+        <v>82.31</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L19" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M19" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N19" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P19" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R19" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S19" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T19" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U19" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V19" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W19" s="46" t="n"/>
       <c r="X19" s="46" t="n"/>
       <c r="Y19" s="45">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z19" s="46" t="n"/>
       <c r="AA19" s="46" t="n"/>
       <c r="AB19" s="47" t="n"/>
       <c r="AC19" s="42">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD19" s="48" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="38" t="n">
-        <v>45812</v>
+        <v>45818</v>
       </c>
       <c r="B20" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C20" s="39" t="inlineStr">
@@ -2226,88 +2164,88 @@
         </is>
       </c>
       <c r="D20" s="40" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E20" s="41" t="n">
-        <v>2267.87</v>
+        <v>20.55</v>
       </c>
       <c r="F20" s="41" t="n">
-        <v>2267.87</v>
+        <v>328.8</v>
       </c>
       <c r="G20" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.20.5500/- per share on Ex-Date: 10-JUN-2025</t>
         </is>
       </c>
       <c r="H20" s="40" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="I20" s="40" t="n">
-        <v>13.71</v>
+        <v>0</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L20" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M20" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N20" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P20" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R20" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S20" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T20" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U20" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V20" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W20" s="46" t="n"/>
       <c r="X20" s="46" t="n"/>
       <c r="Y20" s="45">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z20" s="46" t="n"/>
       <c r="AA20" s="46" t="n"/>
       <c r="AB20" s="47" t="n"/>
       <c r="AC20" s="42">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD20" s="48" t="n"/>
@@ -2351,71 +2289,71 @@
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L21" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M21" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N21" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O21" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P21" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R21" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S21" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T21" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U21" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V21" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W21" s="46" t="n"/>
       <c r="X21" s="46" t="n"/>
       <c r="Y21" s="45">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z21" s="46" t="n"/>
       <c r="AA21" s="46" t="n"/>
       <c r="AB21" s="47" t="n"/>
       <c r="AC21" s="42">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD21" s="48" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B22" s="39" t="inlineStr">
         <is>
@@ -2428,13 +2366,13 @@
         </is>
       </c>
       <c r="D22" s="40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="41" t="n">
-        <v>2281.46</v>
+        <v>2267.87</v>
       </c>
       <c r="F22" s="41" t="n">
-        <v>4562.92</v>
+        <v>2267.87</v>
       </c>
       <c r="G22" s="39" t="inlineStr">
         <is>
@@ -2442,181 +2380,182 @@
         </is>
       </c>
       <c r="H22" s="40" t="n">
-        <v>4.53</v>
+        <v>2.26</v>
       </c>
       <c r="I22" s="40" t="n">
-        <v>27.59</v>
+        <v>13.71</v>
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L22" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M22" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N22" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O22" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P22" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R22" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S22" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T22" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U22" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V22" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W22" s="46" t="n"/>
       <c r="X22" s="46" t="n"/>
       <c r="Y22" s="45">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z22" s="46" t="n"/>
       <c r="AA22" s="46" t="n"/>
       <c r="AB22" s="47" t="n"/>
       <c r="AC22" s="42">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD22" s="48" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B23" s="50" t="inlineStr">
+      <c r="A23" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B23" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C23" s="50" t="inlineStr">
+      <c r="C23" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D23" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="52" t="n">
-        <v>2293.04</v>
-      </c>
-      <c r="F23" s="52">
-        <f>E17*D17 + sum(H17:I17)</f>
-        <v/>
-      </c>
-      <c r="G23" s="50" t="inlineStr">
+      <c r="D23" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="41" t="n">
+        <v>2281.46</v>
+      </c>
+      <c r="F23" s="41" t="n">
+        <v>4562.92</v>
+      </c>
+      <c r="G23" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H23" s="51" t="n"/>
-      <c r="I23" s="51" t="n">
-        <v>16.14</v>
+      <c r="H23" s="40" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="I23" s="40" t="n">
+        <v>27.59</v>
       </c>
       <c r="J23" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L23" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M23" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N23" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P23" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R23" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S23" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T23" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U23" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V23" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W23" s="46" t="n"/>
       <c r="X23" s="46" t="n"/>
       <c r="Y23" s="45">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z23" s="46" t="n"/>
       <c r="AA23" s="46" t="n"/>
       <c r="AB23" s="47" t="n"/>
       <c r="AC23" s="42">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD23" s="48" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="49" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B24" s="50" t="inlineStr">
         <is>
@@ -2632,92 +2571,91 @@
         <v>1</v>
       </c>
       <c r="E24" s="52" t="n">
-        <v>2243.04</v>
-      </c>
-      <c r="F24" s="52" t="n">
-        <v>2243.04</v>
+        <v>2293.04</v>
+      </c>
+      <c r="F24" s="52">
+        <f>E17*D17 + sum(H17:I17)</f>
+        <v/>
       </c>
       <c r="G24" s="50" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H24" s="51" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="H24" s="51" t="n"/>
       <c r="I24" s="51" t="n">
-        <v>13.55</v>
+        <v>16.14</v>
       </c>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L24" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M24" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N24" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P24" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R24" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S24" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T24" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U24" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V24" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W24" s="46" t="n"/>
       <c r="X24" s="46" t="n"/>
       <c r="Y24" s="45">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z24" s="46" t="n"/>
       <c r="AA24" s="46" t="n"/>
       <c r="AB24" s="47" t="n"/>
       <c r="AC24" s="42">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD24" s="48" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="49" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B25" s="50" t="inlineStr">
         <is>
@@ -2733,10 +2671,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="52" t="n">
-        <v>2204.63</v>
+        <v>2243.04</v>
       </c>
       <c r="F25" s="52" t="n">
-        <v>2204.63</v>
+        <v>2243.04</v>
       </c>
       <c r="G25" s="50" t="inlineStr">
         <is>
@@ -2744,81 +2682,81 @@
         </is>
       </c>
       <c r="H25" s="51" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="I25" s="51" t="n">
-        <v>13.35</v>
+        <v>13.55</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L25" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M25" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N25" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P25" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R25" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S25" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T25" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U25" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V25" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W25" s="46" t="n"/>
       <c r="X25" s="46" t="n"/>
       <c r="Y25" s="45">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z25" s="46" t="n"/>
       <c r="AA25" s="46" t="n"/>
       <c r="AB25" s="47" t="n"/>
       <c r="AC25" s="42">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD25" s="48" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="49" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B26" s="50" t="inlineStr">
         <is>
@@ -2831,13 +2769,13 @@
         </is>
       </c>
       <c r="D26" s="51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="52" t="n">
-        <v>2273</v>
+        <v>2204.63</v>
       </c>
       <c r="F26" s="52" t="n">
-        <v>6819</v>
+        <v>2204.63</v>
       </c>
       <c r="G26" s="50" t="inlineStr">
         <is>
@@ -2845,74 +2783,74 @@
         </is>
       </c>
       <c r="H26" s="51" t="n">
-        <v>6.76</v>
+        <v>2.18</v>
       </c>
       <c r="I26" s="51" t="n">
-        <v>41.24</v>
+        <v>13.35</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L26" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M26" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N26" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P26" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R26" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S26" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T26" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U26" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V26" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W26" s="46" t="n"/>
       <c r="X26" s="46" t="n"/>
       <c r="Y26" s="45">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z26" s="46" t="n"/>
       <c r="AA26" s="46" t="n"/>
       <c r="AB26" s="47" t="n"/>
       <c r="AC26" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD26" s="48" t="n"/>
@@ -2932,13 +2870,13 @@
         </is>
       </c>
       <c r="D27" s="51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="52" t="n">
-        <v>2273.12</v>
+        <v>2273</v>
       </c>
       <c r="F27" s="52" t="n">
-        <v>2273.12</v>
+        <v>6819</v>
       </c>
       <c r="G27" s="50" t="inlineStr">
         <is>
@@ -2946,81 +2884,81 @@
         </is>
       </c>
       <c r="H27" s="51" t="n">
-        <v>2.26</v>
+        <v>6.76</v>
       </c>
       <c r="I27" s="51" t="n">
-        <v>13.76</v>
+        <v>41.24</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L27" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M27" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N27" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P27" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R27" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S27" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T27" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U27" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V27" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W27" s="46" t="n"/>
       <c r="X27" s="46" t="n"/>
       <c r="Y27" s="45">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z27" s="46" t="n"/>
       <c r="AA27" s="46" t="n"/>
       <c r="AB27" s="47" t="n"/>
       <c r="AC27" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD27" s="48" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B28" s="50" t="inlineStr">
         <is>
@@ -3033,13 +2971,13 @@
         </is>
       </c>
       <c r="D28" s="51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="52" t="n">
-        <v>2247.11</v>
+        <v>2273.12</v>
       </c>
       <c r="F28" s="52" t="n">
-        <v>4494.22</v>
+        <v>2273.12</v>
       </c>
       <c r="G28" s="50" t="inlineStr">
         <is>
@@ -3047,74 +2985,74 @@
         </is>
       </c>
       <c r="H28" s="51" t="n">
-        <v>4.45</v>
+        <v>2.26</v>
       </c>
       <c r="I28" s="51" t="n">
-        <v>27.17</v>
+        <v>13.76</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L28" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M28" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N28" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P28" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R28" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S28" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T28" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U28" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V28" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W28" s="46" t="n"/>
       <c r="X28" s="46" t="n"/>
       <c r="Y28" s="45">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z28" s="46" t="n"/>
       <c r="AA28" s="46" t="n"/>
       <c r="AB28" s="47" t="n"/>
       <c r="AC28" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD28" s="48" t="n"/>
@@ -3134,13 +3072,13 @@
         </is>
       </c>
       <c r="D29" s="51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="52" t="n">
         <v>2247.11</v>
       </c>
       <c r="F29" s="52" t="n">
-        <v>2247.11</v>
+        <v>4494.22</v>
       </c>
       <c r="G29" s="50" t="inlineStr">
         <is>
@@ -3148,74 +3086,74 @@
         </is>
       </c>
       <c r="H29" s="51" t="n">
-        <v>2.23</v>
+        <v>4.45</v>
       </c>
       <c r="I29" s="51" t="n">
-        <v>13.58</v>
+        <v>27.17</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L29" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M29" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N29" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P29" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R29" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S29" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T29" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U29" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V29" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W29" s="46" t="n"/>
       <c r="X29" s="46" t="n"/>
       <c r="Y29" s="45">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z29" s="46" t="n"/>
       <c r="AA29" s="46" t="n"/>
       <c r="AB29" s="47" t="n"/>
       <c r="AC29" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD29" s="48" t="n"/>
@@ -3235,13 +3173,13 @@
         </is>
       </c>
       <c r="D30" s="51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="52" t="n">
         <v>2247.11</v>
       </c>
       <c r="F30" s="52" t="n">
-        <v>4494.22</v>
+        <v>2247.11</v>
       </c>
       <c r="G30" s="50" t="inlineStr">
         <is>
@@ -3249,93 +3187,178 @@
         </is>
       </c>
       <c r="H30" s="51" t="n">
-        <v>4.45</v>
+        <v>2.23</v>
       </c>
       <c r="I30" s="51" t="n">
-        <v>27.17</v>
+        <v>13.58</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L30" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M30" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N30" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P30" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R30" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S30" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T30" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U30" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V30" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W30" s="46" t="n"/>
       <c r="X30" s="46" t="n"/>
       <c r="Y30" s="45">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z30" s="46" t="n"/>
       <c r="AA30" s="46" t="n"/>
       <c r="AB30" s="47" t="n"/>
       <c r="AC30" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD30" s="48" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="49" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B31" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C31" s="50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D31" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="52" t="n">
+        <v>2247.11</v>
+      </c>
+      <c r="F31" s="52" t="n">
+        <v>4494.22</v>
+      </c>
+      <c r="G31" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H31" s="51" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I31" s="51" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="J31" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K31" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="L31" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M31" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N31" s="44">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O31" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="P31" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R31" s="42">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S31" s="45">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="T31" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="U31" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V31" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W31" s="46" t="n"/>
+      <c r="X31" s="46" t="n"/>
+      <c r="Y31" s="45">
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z31" s="46" t="n"/>
+      <c r="AA31" s="46" t="n"/>
+      <c r="AB31" s="47" t="n"/>
+      <c r="AC31" s="42">
         <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
-      <c r="AD30" s="48" t="n"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="53" t="n"/>
-      <c r="F31" s="53" t="n"/>
-      <c r="G31" s="54" t="n"/>
-      <c r="J31" s="53" t="n"/>
-      <c r="K31" s="53" t="n"/>
-      <c r="L31" s="53" t="n"/>
-      <c r="M31" s="56" t="n"/>
-      <c r="W31" s="53" t="n"/>
-      <c r="X31" s="53" t="n"/>
-      <c r="Y31" s="53" t="n"/>
-      <c r="Z31" s="53" t="n"/>
-      <c r="AA31" s="53" t="n"/>
-      <c r="AB31" s="53" t="n"/>
-      <c r="AC31" s="53" t="n"/>
+      <c r="AD31" s="48" t="n"/>
     </row>
     <row r="32">
       <c r="E32" s="53" t="n"/>
@@ -18304,6 +18327,7 @@
       <c r="J967" s="53" t="n"/>
       <c r="K967" s="53" t="n"/>
       <c r="L967" s="53" t="n"/>
+      <c r="M967" s="56" t="n"/>
       <c r="W967" s="53" t="n"/>
       <c r="X967" s="53" t="n"/>
       <c r="Y967" s="53" t="n"/>
@@ -18551,6 +18575,21 @@
       <c r="AA983" s="53" t="n"/>
       <c r="AB983" s="53" t="n"/>
       <c r="AC983" s="53" t="n"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="53" t="n"/>
+      <c r="F984" s="53" t="n"/>
+      <c r="G984" s="54" t="n"/>
+      <c r="J984" s="53" t="n"/>
+      <c r="K984" s="53" t="n"/>
+      <c r="L984" s="53" t="n"/>
+      <c r="W984" s="53" t="n"/>
+      <c r="X984" s="53" t="n"/>
+      <c r="Y984" s="53" t="n"/>
+      <c r="Z984" s="53" t="n"/>
+      <c r="AA984" s="53" t="n"/>
+      <c r="AB984" s="53" t="n"/>
+      <c r="AC984" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$54"/>
